--- a/resultados/analise/resultados_compartivos_filtrados.xlsx
+++ b/resultados/analise/resultados_compartivos_filtrados.xlsx
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.177624323644659</v>
+        <v>5.17762432364466</v>
       </c>
       <c r="G2" t="n">
         <v>81</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004484176635742188</v>
+        <v>0.00380611419677734</v>
       </c>
       <c r="I2" t="n">
         <v>9.73215531173906e-06</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.158442555151209</v>
+        <v>5.15844255515121</v>
       </c>
       <c r="G3" t="n">
         <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001493453979492188</v>
+        <v>0.00191926956176758</v>
       </c>
       <c r="I3" t="n">
-        <v>4.081601348667869e-06</v>
+        <v>4.08160134866787e-06</v>
       </c>
       <c r="J3" t="n">
         <v>443</v>
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.175980797853918</v>
+        <v>5.17598079785392</v>
       </c>
       <c r="G4" t="n">
         <v>64</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009671449661254883</v>
+        <v>0.0116648674011231</v>
       </c>
       <c r="I4" t="n">
-        <v>9.733924982666186e-06</v>
+        <v>9.733924982666189e-06</v>
       </c>
       <c r="J4" t="n">
         <v>443</v>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.175196958159564</v>
+        <v>5.17519695815956</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007011651992797852</v>
+        <v>0.012890100479126</v>
       </c>
       <c r="I5" t="n">
         <v>9.704257865022709e-06</v>
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.175980797853918</v>
+        <v>5.17598079785392</v>
       </c>
       <c r="G6" t="n">
         <v>64</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005603313446044922</v>
+        <v>0.009531736373901371</v>
       </c>
       <c r="I6" t="n">
         <v>9.739966914164571e-06</v>
@@ -787,10 +787,10 @@
         <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005611896514892578</v>
+        <v>0.0081939697265625</v>
       </c>
       <c r="I7" t="n">
-        <v>8.577460945123592e-06</v>
+        <v>8.57746094512359e-06</v>
       </c>
       <c r="J7" t="n">
         <v>443</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.235967774192392</v>
+        <v>8.235967774192391</v>
       </c>
       <c r="G8" t="n">
         <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001282453536987305</v>
+        <v>0.00188398361206055</v>
       </c>
       <c r="I8" t="n">
-        <v>9.610906841174262e-06</v>
+        <v>9.61090684117426e-06</v>
       </c>
       <c r="J8" t="n">
         <v>198</v>
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -891,7 +891,7 @@
         <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000324249267578125</v>
+        <v>0.000413894653320313</v>
       </c>
       <c r="I9" t="n">
         <v>6.14552676886002e-06</v>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.231612282153252</v>
+        <v>8.23161228215325</v>
       </c>
       <c r="G10" t="n">
         <v>55</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004569292068481445</v>
+        <v>0.00598311424255371</v>
       </c>
       <c r="I10" t="n">
-        <v>9.594716613199509e-06</v>
+        <v>9.594716613199511e-06</v>
       </c>
       <c r="J10" t="n">
         <v>198</v>
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.180261629650815</v>
+        <v>8.18026162965082</v>
       </c>
       <c r="G11" t="n">
         <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001015424728393555</v>
+        <v>0.00127005577087402</v>
       </c>
       <c r="I11" t="n">
         <v>8.162942778000369e-06</v>
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.231612282153252</v>
+        <v>8.23161228215325</v>
       </c>
       <c r="G12" t="n">
         <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003468036651611328</v>
+        <v>0.00499176979064941</v>
       </c>
       <c r="I12" t="n">
-        <v>9.602430584644985e-06</v>
+        <v>9.60243058464499e-06</v>
       </c>
       <c r="J12" t="n">
         <v>198</v>
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.180261629650815</v>
+        <v>8.18026162965082</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002538919448852539</v>
+        <v>0.0028681755065918</v>
       </c>
       <c r="I13" t="n">
-        <v>8.067818578136783e-06</v>
+        <v>8.06781857813678e-06</v>
       </c>
       <c r="J13" t="n">
         <v>198</v>
@@ -1145,16 +1145,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.664183085589989</v>
+        <v>5.66418308558999</v>
       </c>
       <c r="G14" t="n">
         <v>99</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06315398216247559</v>
+        <v>0.0582740306854248</v>
       </c>
       <c r="I14" t="n">
-        <v>9.887257321542167e-06</v>
+        <v>9.88725732154217e-06</v>
       </c>
       <c r="J14" t="n">
         <v>1612</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.644495706012883</v>
+        <v>5.64449570601288</v>
       </c>
       <c r="G15" t="n">
         <v>42</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02987003326416016</v>
+        <v>0.0255801677703857</v>
       </c>
       <c r="I15" t="n">
-        <v>1.125279261864306e-07</v>
+        <v>1.12527926186431e-07</v>
       </c>
       <c r="J15" t="n">
         <v>1612</v>
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.660075679795024</v>
+        <v>5.66007567979502</v>
       </c>
       <c r="G16" t="n">
         <v>69</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07750892639160156</v>
+        <v>0.0525057315826416</v>
       </c>
       <c r="I16" t="n">
         <v>9.830003325958919e-06</v>
@@ -1301,16 +1301,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.656491161165185</v>
+        <v>5.65649116116519</v>
       </c>
       <c r="G17" t="n">
         <v>59</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0447840690612793</v>
+        <v>0.0453813076019287</v>
       </c>
       <c r="I17" t="n">
-        <v>9.851742839941448e-06</v>
+        <v>9.851742839941449e-06</v>
       </c>
       <c r="J17" t="n">
         <v>1612</v>
@@ -1353,16 +1353,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.660075679795024</v>
+        <v>5.66007567979502</v>
       </c>
       <c r="G18" t="n">
         <v>69</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03963065147399902</v>
+        <v>0.0536258220672607</v>
       </c>
       <c r="I18" t="n">
-        <v>9.841592462938373e-06</v>
+        <v>9.84159246293837e-06</v>
       </c>
       <c r="J18" t="n">
         <v>1612</v>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.629941110412381</v>
+        <v>5.62994111041238</v>
       </c>
       <c r="G19" t="n">
         <v>31</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02138113975524902</v>
+        <v>0.0277936458587647</v>
       </c>
       <c r="I19" t="n">
-        <v>8.534194915604358e-06</v>
+        <v>8.53419491560436e-06</v>
       </c>
       <c r="J19" t="n">
         <v>1612</v>
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.85636022094015</v>
+        <v>13.8563602209402</v>
       </c>
       <c r="G20" t="n">
         <v>74</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002779006958007812</v>
+        <v>0.00445914268493652</v>
       </c>
       <c r="I20" t="n">
-        <v>9.868273052810091e-06</v>
+        <v>9.86827305281009e-06</v>
       </c>
       <c r="J20" t="n">
         <v>634</v>
@@ -1482,10 +1482,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>13.85335522354526</v>
+        <v>13.8533552235453</v>
       </c>
       <c r="G21" t="n">
         <v>56</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002025842666625977</v>
+        <v>0.00274181365966797</v>
       </c>
       <c r="I21" t="n">
-        <v>9.058097463115668e-06</v>
+        <v>9.058097463115669e-06</v>
       </c>
       <c r="J21" t="n">
         <v>634</v>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>13.84780020843663</v>
+        <v>13.8478002084366</v>
       </c>
       <c r="G22" t="n">
         <v>36</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003554821014404297</v>
+        <v>0.00663089752197266</v>
       </c>
       <c r="I22" t="n">
-        <v>9.218380034323974e-06</v>
+        <v>9.218380034323971e-06</v>
       </c>
       <c r="J22" t="n">
         <v>634</v>
@@ -1613,16 +1613,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13.84692877440814</v>
+        <v>13.8469287744081</v>
       </c>
       <c r="G23" t="n">
         <v>34</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00307011604309082</v>
+        <v>0.00710725784301758</v>
       </c>
       <c r="I23" t="n">
-        <v>8.416485797216353e-06</v>
+        <v>8.41648579721635e-06</v>
       </c>
       <c r="J23" t="n">
         <v>634</v>
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13.84780020843663</v>
+        <v>13.8478002084366</v>
       </c>
       <c r="G24" t="n">
         <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00309300422668457</v>
+        <v>0.00670814514160156</v>
       </c>
       <c r="I24" t="n">
-        <v>9.223329261323003e-06</v>
+        <v>9.223329261323e-06</v>
       </c>
       <c r="J24" t="n">
         <v>634</v>
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00439143180847168</v>
+        <v>0.00749278068542481</v>
       </c>
       <c r="I25" t="n">
         <v>8.81423472658558e-06</v>
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.618009280534263</v>
+        <v>5.61800928053426</v>
       </c>
       <c r="G26" t="n">
         <v>124</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04443669319152832</v>
+        <v>0.0892312526702881</v>
       </c>
       <c r="I26" t="n">
-        <v>9.976989305980093e-06</v>
+        <v>9.976989305980091e-06</v>
       </c>
       <c r="J26" t="n">
         <v>1454</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1827,10 +1827,10 @@
         <v>49</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01791882514953613</v>
+        <v>0.0445461273193359</v>
       </c>
       <c r="I27" t="n">
-        <v>3.579918195761039e-06</v>
+        <v>3.57991819576104e-06</v>
       </c>
       <c r="J27" t="n">
         <v>1454</v>
@@ -1846,10 +1846,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.603467202919783</v>
+        <v>5.60346720291978</v>
       </c>
       <c r="G28" t="n">
         <v>57</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02561831474304199</v>
+        <v>0.0623488426208496</v>
       </c>
       <c r="I28" t="n">
-        <v>9.793813339240824e-06</v>
+        <v>9.79381333924082e-06</v>
       </c>
       <c r="J28" t="n">
         <v>1454</v>
@@ -1925,16 +1925,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.586539963285206</v>
+        <v>5.58653996328521</v>
       </c>
       <c r="G29" t="n">
         <v>34</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01515579223632812</v>
+        <v>0.0316553115844727</v>
       </c>
       <c r="I29" t="n">
-        <v>9.593313785388912e-06</v>
+        <v>9.593313785388911e-06</v>
       </c>
       <c r="J29" t="n">
         <v>1454</v>
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.603467202919783</v>
+        <v>5.60346720291978</v>
       </c>
       <c r="G30" t="n">
         <v>57</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02527236938476562</v>
+        <v>0.0479321479797363</v>
       </c>
       <c r="I30" t="n">
-        <v>9.830492083586385e-06</v>
+        <v>9.83049208358639e-06</v>
       </c>
       <c r="J30" t="n">
         <v>1454</v>
@@ -2029,16 +2029,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.582072377428691</v>
+        <v>5.58207237742869</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01633000373840332</v>
+        <v>0.0288097858428955</v>
       </c>
       <c r="I31" t="n">
-        <v>9.124748359640215e-06</v>
+        <v>9.12474835964022e-06</v>
       </c>
       <c r="J31" t="n">
         <v>1454</v>
@@ -2087,10 +2087,10 @@
         <v>134</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001734733581542969</v>
+        <v>0.00271964073181152</v>
       </c>
       <c r="I32" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.8212278755997e-06</v>
       </c>
       <c r="J32" t="n">
         <v>48</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2133,16 +2133,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3011156754.072117</v>
+        <v>3011156754.07212</v>
       </c>
       <c r="G33" t="n">
         <v>85</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0009438991546630859</v>
+        <v>0.00173783302307129</v>
       </c>
       <c r="I33" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.6768023857551e-06</v>
       </c>
       <c r="J33" t="n">
         <v>48</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2996903287.477822</v>
+        <v>2996903287.47782</v>
       </c>
       <c r="G34" t="n">
         <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00112605094909668</v>
+        <v>0.00190138816833496</v>
       </c>
       <c r="I34" t="n">
-        <v>9.879920810874217e-06</v>
+        <v>9.87992081087422e-06</v>
       </c>
       <c r="J34" t="n">
         <v>48</v>
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2996244213.466879</v>
+        <v>2996244213.46688</v>
       </c>
       <c r="G35" t="n">
         <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0008745193481445312</v>
+        <v>0.0017852783203125</v>
       </c>
       <c r="I35" t="n">
-        <v>3.027903214592014e-06</v>
+        <v>3.02790321459201e-06</v>
       </c>
       <c r="J35" t="n">
         <v>48</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2996903287.477822</v>
+        <v>2996903287.47782</v>
       </c>
       <c r="G36" t="n">
         <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0008814334869384766</v>
+        <v>0.00183820724487305</v>
       </c>
       <c r="I36" t="n">
         <v>9.927615749139931e-06</v>
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2996575918.088687</v>
+        <v>2996575918.08869</v>
       </c>
       <c r="G37" t="n">
         <v>19</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00199437141418457</v>
+        <v>0.0038914680480957</v>
       </c>
       <c r="I37" t="n">
         <v>7.971580623049999e-06</v>
@@ -2393,16 +2393,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.366980478285793</v>
+        <v>2.36698047828579</v>
       </c>
       <c r="G38" t="n">
         <v>113</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002715587615966797</v>
+        <v>0.00292205810546875</v>
       </c>
       <c r="I38" t="n">
-        <v>9.718522766616134e-06</v>
+        <v>9.718522766616129e-06</v>
       </c>
       <c r="J38" t="n">
         <v>130</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.341827745527051</v>
+        <v>2.34182774552705</v>
       </c>
       <c r="G39" t="n">
         <v>39</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0005750656127929688</v>
+        <v>0.00113892555236816</v>
       </c>
       <c r="I39" t="n">
-        <v>6.624151165445741e-06</v>
+        <v>6.62415116544574e-06</v>
       </c>
       <c r="J39" t="n">
         <v>130</v>
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2503,10 +2503,10 @@
         <v>87</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006365060806274414</v>
+        <v>0.0118386745452881</v>
       </c>
       <c r="I40" t="n">
-        <v>9.865078798627148e-06</v>
+        <v>9.86507879862715e-06</v>
       </c>
       <c r="J40" t="n">
         <v>130</v>
@@ -2555,10 +2555,10 @@
         <v>83</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005662679672241211</v>
+        <v>0.0138750076293945</v>
       </c>
       <c r="I41" t="n">
-        <v>9.625404064819425e-06</v>
+        <v>9.62540406481942e-06</v>
       </c>
       <c r="J41" t="n">
         <v>130</v>
@@ -2607,10 +2607,10 @@
         <v>87</v>
       </c>
       <c r="H42" t="n">
-        <v>0.005516290664672852</v>
+        <v>0.0136010646820068</v>
       </c>
       <c r="I42" t="n">
-        <v>9.874550582640117e-06</v>
+        <v>9.874550582640121e-06</v>
       </c>
       <c r="J42" t="n">
         <v>130</v>
@@ -2653,16 +2653,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.332864283391514</v>
+        <v>2.33286428339151</v>
       </c>
       <c r="G43" t="n">
         <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004466772079467773</v>
+        <v>0.0114636421203613</v>
       </c>
       <c r="I43" t="n">
-        <v>9.450595765369624e-06</v>
+        <v>9.45059576536962e-06</v>
       </c>
       <c r="J43" t="n">
         <v>130</v>
@@ -2705,16 +2705,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>127119840.5799289</v>
+        <v>127119840.579929</v>
       </c>
       <c r="G44" t="n">
         <v>335</v>
       </c>
       <c r="H44" t="n">
-        <v>1.161533355712891</v>
+        <v>1.290123462677</v>
       </c>
       <c r="I44" t="n">
-        <v>9.950853270590775e-06</v>
+        <v>9.95085327059078e-06</v>
       </c>
       <c r="J44" t="n">
         <v>3600</v>
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2757,16 +2757,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>126665889.0410609</v>
+        <v>126665889.041061</v>
       </c>
       <c r="G45" t="n">
         <v>185</v>
       </c>
       <c r="H45" t="n">
-        <v>0.640200138092041</v>
+        <v>0.712582349777222</v>
       </c>
       <c r="I45" t="n">
-        <v>9.959440811812839e-06</v>
+        <v>9.959440811812841e-06</v>
       </c>
       <c r="J45" t="n">
         <v>3600</v>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2815,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>0.09699583053588867</v>
+        <v>0.100222826004028</v>
       </c>
       <c r="I46" t="n">
-        <v>9.650775776608379e-06</v>
+        <v>9.650775776608381e-06</v>
       </c>
       <c r="J46" t="n">
         <v>3600</v>
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>125542422.9699312</v>
+        <v>125542422.969931</v>
       </c>
       <c r="G47" t="n">
         <v>95</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3423070907592773</v>
+        <v>0.382321119308472</v>
       </c>
       <c r="I47" t="n">
-        <v>9.840421957810351e-06</v>
+        <v>9.840421957810349e-06</v>
       </c>
       <c r="J47" t="n">
         <v>3600</v>
@@ -2913,13 +2913,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>125897878.2581652</v>
+        <v>125897878.258165</v>
       </c>
       <c r="G48" t="n">
         <v>112</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4040415287017822</v>
+        <v>0.494401454925537</v>
       </c>
       <c r="I48" t="n">
         <v>9.74191632855677e-06</v>
@@ -2965,16 +2965,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>116592656.9329848</v>
+        <v>116592656.932985</v>
       </c>
       <c r="G49" t="n">
         <v>34</v>
       </c>
       <c r="H49" t="n">
-        <v>0.127133846282959</v>
+        <v>0.161427974700928</v>
       </c>
       <c r="I49" t="n">
-        <v>2.351132571033543e-06</v>
+        <v>2.35113257103354e-06</v>
       </c>
       <c r="J49" t="n">
         <v>3600</v>
@@ -3017,16 +3017,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>67579067.21497774</v>
+        <v>67579067.2149777</v>
       </c>
       <c r="G50" t="n">
         <v>220</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02795219421386719</v>
+        <v>0.0394241809844971</v>
       </c>
       <c r="I50" t="n">
-        <v>9.756365027126536e-06</v>
+        <v>9.75636502712654e-06</v>
       </c>
       <c r="J50" t="n">
         <v>1083</v>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3069,16 +3069,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>66842601.59795048</v>
+        <v>66842601.5979505</v>
       </c>
       <c r="G51" t="n">
         <v>90</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01131677627563477</v>
+        <v>0.016740083694458</v>
       </c>
       <c r="I51" t="n">
-        <v>8.224602928185185e-06</v>
+        <v>8.22460292818519e-06</v>
       </c>
       <c r="J51" t="n">
         <v>1083</v>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3127,10 +3127,10 @@
         <v>126</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02643418312072754</v>
+        <v>0.0451686382293701</v>
       </c>
       <c r="I52" t="n">
-        <v>9.891864938078292e-06</v>
+        <v>9.89186493807829e-06</v>
       </c>
       <c r="J52" t="n">
         <v>1083</v>
@@ -3179,10 +3179,10 @@
         <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01443219184875488</v>
+        <v>0.0234537124633789</v>
       </c>
       <c r="I53" t="n">
-        <v>9.773054654923668e-06</v>
+        <v>9.77305465492367e-06</v>
       </c>
       <c r="J53" t="n">
         <v>1083</v>
@@ -3231,10 +3231,10 @@
         <v>126</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02549386024475098</v>
+        <v>0.0415174961090088</v>
       </c>
       <c r="I54" t="n">
-        <v>9.954165398903273e-06</v>
+        <v>9.95416539890327e-06</v>
       </c>
       <c r="J54" t="n">
         <v>1083</v>
@@ -3277,16 +3277,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>65553580.26659042</v>
+        <v>65553580.2665904</v>
       </c>
       <c r="G55" t="n">
         <v>44</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01388120651245117</v>
+        <v>0.016852617263794</v>
       </c>
       <c r="I55" t="n">
-        <v>9.223225971334136e-06</v>
+        <v>9.22322597133414e-06</v>
       </c>
       <c r="J55" t="n">
         <v>1083</v>
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5.783741344069723</v>
+        <v>5.78374134406972</v>
       </c>
       <c r="G56" t="n">
         <v>152</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07696223258972168</v>
+        <v>0.0881974697113037</v>
       </c>
       <c r="I56" t="n">
         <v>9.889266292128169e-06</v>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.765054880341849</v>
+        <v>5.76505488034185</v>
       </c>
       <c r="G57" t="n">
         <v>57</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03042340278625488</v>
+        <v>0.0313310623168945</v>
       </c>
       <c r="I57" t="n">
-        <v>9.119336362863703e-06</v>
+        <v>9.1193363628637e-06</v>
       </c>
       <c r="J57" t="n">
         <v>1624</v>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3439,10 +3439,10 @@
         <v>44</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03541946411132812</v>
+        <v>0.0288426876068115</v>
       </c>
       <c r="I58" t="n">
-        <v>8.792294869092705e-06</v>
+        <v>8.79229486909271e-06</v>
       </c>
       <c r="J58" t="n">
         <v>1624</v>
@@ -3485,16 +3485,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5.756464508211656</v>
+        <v>5.75646450821166</v>
       </c>
       <c r="G59" t="n">
         <v>39</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03176355361938477</v>
+        <v>0.0260787010192871</v>
       </c>
       <c r="I59" t="n">
-        <v>8.505854861909609e-06</v>
+        <v>8.505854861909611e-06</v>
       </c>
       <c r="J59" t="n">
         <v>1624</v>
@@ -3543,10 +3543,10 @@
         <v>44</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04770755767822266</v>
+        <v>0.0299482345581055</v>
       </c>
       <c r="I60" t="n">
-        <v>8.824296276423648e-06</v>
+        <v>8.824296276423649e-06</v>
       </c>
       <c r="J60" t="n">
         <v>1624</v>
@@ -3589,16 +3589,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.752415587189669</v>
+        <v>5.75241558718967</v>
       </c>
       <c r="G61" t="n">
         <v>33</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03550100326538086</v>
+        <v>0.0280382633209229</v>
       </c>
       <c r="I61" t="n">
-        <v>9.949673297135612e-06</v>
+        <v>9.949673297135611e-06</v>
       </c>
       <c r="J61" t="n">
         <v>1624</v>
@@ -3641,13 +3641,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3112885321254.005</v>
+        <v>3112885321254</v>
       </c>
       <c r="G62" t="n">
         <v>176</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1737990379333496</v>
+        <v>0.239341259002685</v>
       </c>
       <c r="I62" t="n">
         <v>9.93062770802346e-06</v>
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3110907462318.414</v>
+        <v>3110907462318.41</v>
       </c>
       <c r="G63" t="n">
         <v>130</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1158022880554199</v>
+        <v>0.166089296340942</v>
       </c>
       <c r="I63" t="n">
-        <v>9.719535900029396e-06</v>
+        <v>9.7195359000294e-06</v>
       </c>
       <c r="J63" t="n">
         <v>2003</v>
@@ -3718,10 +3718,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3745,16 +3745,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3101218094032.862</v>
+        <v>3101218094032.86</v>
       </c>
       <c r="G64" t="n">
         <v>25</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0290381908416748</v>
+        <v>0.0426387786865234</v>
       </c>
       <c r="I64" t="n">
-        <v>7.432157612344794e-06</v>
+        <v>7.43215761234479e-06</v>
       </c>
       <c r="J64" t="n">
         <v>2003</v>
@@ -3797,16 +3797,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3101100800586.679</v>
+        <v>3101100800586.68</v>
       </c>
       <c r="G65" t="n">
         <v>24</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02750205993652344</v>
+        <v>0.0418450832366943</v>
       </c>
       <c r="I65" t="n">
-        <v>6.720017703671659e-06</v>
+        <v>6.72001770367166e-06</v>
       </c>
       <c r="J65" t="n">
         <v>2003</v>
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3101218094032.862</v>
+        <v>3101218094032.86</v>
       </c>
       <c r="G66" t="n">
         <v>25</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02543926239013672</v>
+        <v>0.0370235443115234</v>
       </c>
       <c r="I66" t="n">
-        <v>7.438737136964613e-06</v>
+        <v>7.43873713696461e-06</v>
       </c>
       <c r="J66" t="n">
         <v>2003</v>
@@ -3901,16 +3901,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3101100800586.679</v>
+        <v>3101100800586.68</v>
       </c>
       <c r="G67" t="n">
         <v>24</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02890682220458984</v>
+        <v>0.0290544033050537</v>
       </c>
       <c r="I67" t="n">
-        <v>7.139918927603417e-06</v>
+        <v>7.13991892760342e-06</v>
       </c>
       <c r="J67" t="n">
         <v>2003</v>
@@ -3953,16 +3953,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>39536719.78976859</v>
+        <v>39536719.7897686</v>
       </c>
       <c r="G68" t="n">
         <v>130</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01074314117431641</v>
+        <v>0.009141683578491209</v>
       </c>
       <c r="I68" t="n">
-        <v>9.577905122535048e-06</v>
+        <v>9.57790512253505e-06</v>
       </c>
       <c r="J68" t="n">
         <v>817</v>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>39491518.38471355</v>
+        <v>39491518.3847136</v>
       </c>
       <c r="G69" t="n">
         <v>87</v>
       </c>
       <c r="H69" t="n">
-        <v>0.007054805755615234</v>
+        <v>0.0057218074798584</v>
       </c>
       <c r="I69" t="n">
-        <v>9.757291252869126e-06</v>
+        <v>9.757291252869129e-06</v>
       </c>
       <c r="J69" t="n">
         <v>817</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4057,16 +4057,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>39013268.28165583</v>
+        <v>39013268.2816558</v>
       </c>
       <c r="G70" t="n">
         <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001906394958496094</v>
+        <v>0.0018773078918457</v>
       </c>
       <c r="I70" t="n">
-        <v>6.078697951276709e-06</v>
+        <v>6.07869795127671e-06</v>
       </c>
       <c r="J70" t="n">
         <v>817</v>
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>39263141.28832729</v>
+        <v>39263141.2883273</v>
       </c>
       <c r="G71" t="n">
         <v>42</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00640416145324707</v>
+        <v>0.00558543205261231</v>
       </c>
       <c r="I71" t="n">
         <v>8.94358313425952e-06</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>39013268.28165583</v>
+        <v>39013268.2816558</v>
       </c>
       <c r="G72" t="n">
         <v>15</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001698017120361328</v>
+        <v>0.00165295600891113</v>
       </c>
       <c r="I72" t="n">
-        <v>6.273056089763625e-06</v>
+        <v>6.27305608976363e-06</v>
       </c>
       <c r="J72" t="n">
         <v>817</v>
@@ -4213,16 +4213,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>39022383.36100282</v>
+        <v>39022383.3610028</v>
       </c>
       <c r="G73" t="n">
         <v>16</v>
       </c>
       <c r="H73" t="n">
-        <v>0.004048824310302734</v>
+        <v>0.00372910499572754</v>
       </c>
       <c r="I73" t="n">
-        <v>4.043910876896389e-06</v>
+        <v>4.04391087689639e-06</v>
       </c>
       <c r="J73" t="n">
         <v>817</v>
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5.177624323644659</v>
+        <v>5.17762432364466</v>
       </c>
       <c r="G74" t="n">
         <v>81</v>
       </c>
       <c r="H74" t="n">
-        <v>0.002201557159423828</v>
+        <v>0.00206446647644043</v>
       </c>
       <c r="I74" t="n">
         <v>9.73215531173906e-06</v>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5.158442555151209</v>
+        <v>5.15844255515121</v>
       </c>
       <c r="G75" t="n">
         <v>34</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001158714294433594</v>
+        <v>0.000884771347045898</v>
       </c>
       <c r="I75" t="n">
-        <v>4.081601348667869e-06</v>
+        <v>4.08160134866787e-06</v>
       </c>
       <c r="J75" t="n">
         <v>443</v>
@@ -4342,10 +4342,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4369,16 +4369,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5.178030061013579</v>
+        <v>5.17803006101358</v>
       </c>
       <c r="G76" t="n">
         <v>94</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0105283260345459</v>
+        <v>0.00813674926757813</v>
       </c>
       <c r="I76" t="n">
-        <v>9.760392969050895e-06</v>
+        <v>9.76039296905089e-06</v>
       </c>
       <c r="J76" t="n">
         <v>443</v>
@@ -4397,7 +4397,7 @@
         <v>15</v>
       </c>
       <c r="N76" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -4421,16 +4421,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.177990015688846</v>
+        <v>5.17799001568885</v>
       </c>
       <c r="G77" t="n">
         <v>92</v>
       </c>
       <c r="H77" t="n">
-        <v>0.008355855941772461</v>
+        <v>0.00789976119995117</v>
       </c>
       <c r="I77" t="n">
-        <v>9.461962632093873e-06</v>
+        <v>9.461962632093869e-06</v>
       </c>
       <c r="J77" t="n">
         <v>443</v>
@@ -4449,7 +4449,7 @@
         <v>15</v>
       </c>
       <c r="N77" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5.178030061013579</v>
+        <v>5.17803006101358</v>
       </c>
       <c r="G78" t="n">
         <v>94</v>
       </c>
       <c r="H78" t="n">
-        <v>0.008670568466186523</v>
+        <v>0.00793147087097168</v>
       </c>
       <c r="I78" t="n">
-        <v>9.761591638729087e-06</v>
+        <v>9.761591638729091e-06</v>
       </c>
       <c r="J78" t="n">
         <v>443</v>
@@ -4501,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="N78" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -4525,16 +4525,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.176295166127118</v>
+        <v>5.17629516612712</v>
       </c>
       <c r="G79" t="n">
         <v>66</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01072025299072266</v>
+        <v>0.0109162330627441</v>
       </c>
       <c r="I79" t="n">
-        <v>9.569779891088744e-06</v>
+        <v>9.569779891088741e-06</v>
       </c>
       <c r="J79" t="n">
         <v>443</v>
@@ -4553,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="N79" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4577,16 +4577,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8.235967774192392</v>
+        <v>8.235967774192391</v>
       </c>
       <c r="G80" t="n">
         <v>82</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0019378662109375</v>
+        <v>0.00128912925720215</v>
       </c>
       <c r="I80" t="n">
-        <v>9.610906841174262e-06</v>
+        <v>9.61090684117426e-06</v>
       </c>
       <c r="J80" t="n">
         <v>198</v>
@@ -4602,10 +4602,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4635,7 +4635,7 @@
         <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0003707408905029297</v>
+        <v>0.000325918197631836</v>
       </c>
       <c r="I81" t="n">
         <v>6.14552676886002e-06</v>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4681,13 +4681,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8.236255527758122</v>
+        <v>8.23625552775812</v>
       </c>
       <c r="G82" t="n">
         <v>86</v>
       </c>
       <c r="H82" t="n">
-        <v>0.007035970687866211</v>
+        <v>0.00648188591003418</v>
       </c>
       <c r="I82" t="n">
         <v>9.99326214307545e-06</v>
@@ -4709,7 +4709,7 @@
         <v>15</v>
       </c>
       <c r="N82" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -4733,13 +4733,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8.198130521342684</v>
+        <v>8.19813052134268</v>
       </c>
       <c r="G83" t="n">
         <v>23</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0009756088256835938</v>
+        <v>0.00150394439697266</v>
       </c>
       <c r="I83" t="n">
         <v>6.03837698703679e-06</v>
@@ -4761,7 +4761,7 @@
         <v>15</v>
       </c>
       <c r="N83" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -4785,16 +4785,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8.236255527758122</v>
+        <v>8.23625552775812</v>
       </c>
       <c r="G84" t="n">
         <v>86</v>
       </c>
       <c r="H84" t="n">
-        <v>0.006070852279663086</v>
+        <v>0.00613164901733398</v>
       </c>
       <c r="I84" t="n">
-        <v>9.996484591292221e-06</v>
+        <v>9.996484591292219e-06</v>
       </c>
       <c r="J84" t="n">
         <v>198</v>
@@ -4813,7 +4813,7 @@
         <v>15</v>
       </c>
       <c r="N84" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4837,13 +4837,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>8.231916887173057</v>
+        <v>8.23191688717306</v>
       </c>
       <c r="G85" t="n">
         <v>56</v>
       </c>
       <c r="H85" t="n">
-        <v>0.008147954940795898</v>
+        <v>0.008498430252075201</v>
       </c>
       <c r="I85" t="n">
         <v>9.958571180859639e-06</v>
@@ -4865,7 +4865,7 @@
         <v>15</v>
       </c>
       <c r="N85" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -4889,16 +4889,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>5.664183085589989</v>
+        <v>5.66418308558999</v>
       </c>
       <c r="G86" t="n">
         <v>99</v>
       </c>
       <c r="H86" t="n">
-        <v>0.04926490783691406</v>
+        <v>0.0506067276000977</v>
       </c>
       <c r="I86" t="n">
-        <v>9.887257321542167e-06</v>
+        <v>9.88725732154217e-06</v>
       </c>
       <c r="J86" t="n">
         <v>1612</v>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5.644495706012883</v>
+        <v>5.64449570601288</v>
       </c>
       <c r="G87" t="n">
         <v>42</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01940011978149414</v>
+        <v>0.0209929943084717</v>
       </c>
       <c r="I87" t="n">
-        <v>1.125279261864306e-07</v>
+        <v>1.12527926186431e-07</v>
       </c>
       <c r="J87" t="n">
         <v>1612</v>
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4993,13 +4993,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5.664602028797119</v>
+        <v>5.66460202879712</v>
       </c>
       <c r="G88" t="n">
         <v>109</v>
       </c>
       <c r="H88" t="n">
-        <v>0.06075191497802734</v>
+        <v>0.067723274230957</v>
       </c>
       <c r="I88" t="n">
         <v>9.87909795831816e-06</v>
@@ -5021,7 +5021,7 @@
         <v>15</v>
       </c>
       <c r="N88" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -5045,16 +5045,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5.664461488903862</v>
+        <v>5.66446148890386</v>
       </c>
       <c r="G89" t="n">
         <v>105</v>
       </c>
       <c r="H89" t="n">
-        <v>0.05903005599975586</v>
+        <v>0.06782197952270511</v>
       </c>
       <c r="I89" t="n">
-        <v>9.957282857838024e-06</v>
+        <v>9.957282857838021e-06</v>
       </c>
       <c r="J89" t="n">
         <v>1612</v>
@@ -5073,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="N89" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -5097,16 +5097,16 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5.664602028797119</v>
+        <v>5.66460202879712</v>
       </c>
       <c r="G90" t="n">
         <v>109</v>
       </c>
       <c r="H90" t="n">
-        <v>0.06681227684020996</v>
+        <v>0.0743587017059326</v>
       </c>
       <c r="I90" t="n">
-        <v>9.881078908187068e-06</v>
+        <v>9.88107890818707e-06</v>
       </c>
       <c r="J90" t="n">
         <v>1612</v>
@@ -5125,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="N90" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -5149,16 +5149,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5.655013986725996</v>
+        <v>5.655013986726</v>
       </c>
       <c r="G91" t="n">
         <v>56</v>
       </c>
       <c r="H91" t="n">
-        <v>0.04303979873657227</v>
+        <v>0.0488007068634033</v>
       </c>
       <c r="I91" t="n">
-        <v>9.893407233952026e-06</v>
+        <v>9.89340723395203e-06</v>
       </c>
       <c r="J91" t="n">
         <v>1612</v>
@@ -5177,7 +5177,7 @@
         <v>15</v>
       </c>
       <c r="N91" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -5201,16 +5201,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>13.85636022094015</v>
+        <v>13.8563602209402</v>
       </c>
       <c r="G92" t="n">
         <v>74</v>
       </c>
       <c r="H92" t="n">
-        <v>0.003015041351318359</v>
+        <v>0.00296902656555176</v>
       </c>
       <c r="I92" t="n">
-        <v>9.868273052810091e-06</v>
+        <v>9.86827305281009e-06</v>
       </c>
       <c r="J92" t="n">
         <v>634</v>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>13.85335522354526</v>
+        <v>13.8533552235453</v>
       </c>
       <c r="G93" t="n">
         <v>56</v>
       </c>
       <c r="H93" t="n">
-        <v>0.002860307693481445</v>
+        <v>0.00232696533203125</v>
       </c>
       <c r="I93" t="n">
-        <v>9.058097463115668e-06</v>
+        <v>9.058097463115669e-06</v>
       </c>
       <c r="J93" t="n">
         <v>634</v>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5305,16 +5305,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>13.85375361925622</v>
+        <v>13.8537536192562</v>
       </c>
       <c r="G94" t="n">
         <v>58</v>
       </c>
       <c r="H94" t="n">
-        <v>0.005723714828491211</v>
+        <v>0.00796079635620117</v>
       </c>
       <c r="I94" t="n">
-        <v>9.743283862215126e-06</v>
+        <v>9.743283862215131e-06</v>
       </c>
       <c r="J94" t="n">
         <v>634</v>
@@ -5333,7 +5333,7 @@
         <v>15</v>
       </c>
       <c r="N94" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -5363,10 +5363,10 @@
         <v>48</v>
       </c>
       <c r="H95" t="n">
-        <v>0.004170894622802734</v>
+        <v>0.00554227828979492</v>
       </c>
       <c r="I95" t="n">
-        <v>9.037804367975543e-06</v>
+        <v>9.03780436797554e-06</v>
       </c>
       <c r="J95" t="n">
         <v>634</v>
@@ -5385,7 +5385,7 @@
         <v>15</v>
       </c>
       <c r="N95" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -5409,13 +5409,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>13.85375361925622</v>
+        <v>13.8537536192562</v>
       </c>
       <c r="G96" t="n">
         <v>58</v>
       </c>
       <c r="H96" t="n">
-        <v>0.00568389892578125</v>
+        <v>0.00600838661193848</v>
       </c>
       <c r="I96" t="n">
         <v>9.75050629957204e-06</v>
@@ -5437,7 +5437,7 @@
         <v>15</v>
       </c>
       <c r="N96" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -5461,16 +5461,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>13.85076366131669</v>
+        <v>13.8507636613167</v>
       </c>
       <c r="G97" t="n">
         <v>45</v>
       </c>
       <c r="H97" t="n">
-        <v>0.007180929183959961</v>
+        <v>0.009211063385009771</v>
       </c>
       <c r="I97" t="n">
-        <v>8.222858695774532e-06</v>
+        <v>8.222858695774531e-06</v>
       </c>
       <c r="J97" t="n">
         <v>634</v>
@@ -5489,7 +5489,7 @@
         <v>15</v>
       </c>
       <c r="N97" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -5513,16 +5513,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5.618009280534263</v>
+        <v>5.61800928053426</v>
       </c>
       <c r="G98" t="n">
         <v>124</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04752326011657715</v>
+        <v>0.0734517574310303</v>
       </c>
       <c r="I98" t="n">
-        <v>9.976989305980093e-06</v>
+        <v>9.976989305980091e-06</v>
       </c>
       <c r="J98" t="n">
         <v>1454</v>
@@ -5538,10 +5538,10 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5571,10 +5571,10 @@
         <v>49</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01857280731201172</v>
+        <v>0.0329520702362061</v>
       </c>
       <c r="I99" t="n">
-        <v>3.579918195761039e-06</v>
+        <v>3.57991819576104e-06</v>
       </c>
       <c r="J99" t="n">
         <v>1454</v>
@@ -5590,10 +5590,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5617,16 +5617,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5.618063317941346</v>
+        <v>5.61806331794135</v>
       </c>
       <c r="G100" t="n">
         <v>125</v>
       </c>
       <c r="H100" t="n">
-        <v>0.06217384338378906</v>
+        <v>0.101549863815308</v>
       </c>
       <c r="I100" t="n">
-        <v>9.813075353663466e-06</v>
+        <v>9.81307535366347e-06</v>
       </c>
       <c r="J100" t="n">
         <v>1454</v>
@@ -5645,7 +5645,7 @@
         <v>15</v>
       </c>
       <c r="N100" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5675,10 +5675,10 @@
         <v>116</v>
       </c>
       <c r="H101" t="n">
-        <v>0.05237460136413574</v>
+        <v>0.0937371253967285</v>
       </c>
       <c r="I101" t="n">
-        <v>9.939909651430864e-06</v>
+        <v>9.93990965143086e-06</v>
       </c>
       <c r="J101" t="n">
         <v>1454</v>
@@ -5697,7 +5697,7 @@
         <v>15</v>
       </c>
       <c r="N101" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -5721,16 +5721,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5.618063317941346</v>
+        <v>5.61806331794135</v>
       </c>
       <c r="G102" t="n">
         <v>125</v>
       </c>
       <c r="H102" t="n">
-        <v>0.05414533615112305</v>
+        <v>0.0622260570526123</v>
       </c>
       <c r="I102" t="n">
-        <v>9.817088519806817e-06</v>
+        <v>9.81708851980682e-06</v>
       </c>
       <c r="J102" t="n">
         <v>1454</v>
@@ -5749,7 +5749,7 @@
         <v>15</v>
       </c>
       <c r="N102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -5773,16 +5773,16 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5.598118987143599</v>
+        <v>5.5981189871436</v>
       </c>
       <c r="G103" t="n">
         <v>48</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02661490440368652</v>
+        <v>0.0297298431396484</v>
       </c>
       <c r="I103" t="n">
-        <v>8.739796518706774e-06</v>
+        <v>8.739796518706769e-06</v>
       </c>
       <c r="J103" t="n">
         <v>1454</v>
@@ -5801,7 +5801,7 @@
         <v>15</v>
       </c>
       <c r="N103" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
@@ -5831,10 +5831,10 @@
         <v>134</v>
       </c>
       <c r="H104" t="n">
-        <v>0.001321554183959961</v>
+        <v>0.00153255462646484</v>
       </c>
       <c r="I104" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.8212278755997e-06</v>
       </c>
       <c r="J104" t="n">
         <v>48</v>
@@ -5850,10 +5850,10 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5877,16 +5877,16 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3011156754.072117</v>
+        <v>3011156754.07212</v>
       </c>
       <c r="G105" t="n">
         <v>85</v>
       </c>
       <c r="H105" t="n">
-        <v>0.000823974609375</v>
+        <v>0.00093388557434082</v>
       </c>
       <c r="I105" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.6768023857551e-06</v>
       </c>
       <c r="J105" t="n">
         <v>48</v>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3013804291.688396</v>
+        <v>3013804291.6884</v>
       </c>
       <c r="G106" t="n">
         <v>123</v>
       </c>
       <c r="H106" t="n">
-        <v>0.008076906204223633</v>
+        <v>0.008070230484008791</v>
       </c>
       <c r="I106" t="n">
-        <v>9.898636760937238e-06</v>
+        <v>9.898636760937239e-06</v>
       </c>
       <c r="J106" t="n">
         <v>48</v>
@@ -5957,7 +5957,7 @@
         <v>15</v>
       </c>
       <c r="N106" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -5981,16 +5981,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2998498847.450513</v>
+        <v>2998498847.45051</v>
       </c>
       <c r="G107" t="n">
         <v>25</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0007863044738769531</v>
+        <v>0.00139069557189941</v>
       </c>
       <c r="I107" t="n">
-        <v>8.548675375735603e-06</v>
+        <v>8.548675375735601e-06</v>
       </c>
       <c r="J107" t="n">
         <v>48</v>
@@ -6009,7 +6009,7 @@
         <v>15</v>
       </c>
       <c r="N107" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
@@ -6033,16 +6033,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3013804291.688396</v>
+        <v>3013804291.6884</v>
       </c>
       <c r="G108" t="n">
         <v>123</v>
       </c>
       <c r="H108" t="n">
-        <v>0.007026910781860352</v>
+        <v>0.00689196586608887</v>
       </c>
       <c r="I108" t="n">
-        <v>9.905315075128916e-06</v>
+        <v>9.90531507512892e-06</v>
       </c>
       <c r="J108" t="n">
         <v>48</v>
@@ -6061,7 +6061,7 @@
         <v>15</v>
       </c>
       <c r="N108" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -6085,16 +6085,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2999730552.679868</v>
+        <v>2999730552.67987</v>
       </c>
       <c r="G109" t="n">
         <v>29</v>
       </c>
       <c r="H109" t="n">
-        <v>0.002106428146362305</v>
+        <v>0.00342845916748047</v>
       </c>
       <c r="I109" t="n">
-        <v>9.119476062558837e-06</v>
+        <v>9.11947606255884e-06</v>
       </c>
       <c r="J109" t="n">
         <v>48</v>
@@ -6113,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="N109" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -6137,16 +6137,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.366980478285793</v>
+        <v>2.36698047828579</v>
       </c>
       <c r="G110" t="n">
         <v>113</v>
       </c>
       <c r="H110" t="n">
-        <v>0.001672029495239258</v>
+        <v>0.00161409378051758</v>
       </c>
       <c r="I110" t="n">
-        <v>9.718522766616134e-06</v>
+        <v>9.718522766616129e-06</v>
       </c>
       <c r="J110" t="n">
         <v>130</v>
@@ -6162,10 +6162,10 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.341827745527051</v>
+        <v>2.34182774552705</v>
       </c>
       <c r="G111" t="n">
         <v>39</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0005702972412109375</v>
+        <v>0.00060582160949707</v>
       </c>
       <c r="I111" t="n">
-        <v>6.624151165445741e-06</v>
+        <v>6.62415116544574e-06</v>
       </c>
       <c r="J111" t="n">
         <v>130</v>
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -6241,16 +6241,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.367161853537524</v>
+        <v>2.36716185353752</v>
       </c>
       <c r="G112" t="n">
         <v>124</v>
       </c>
       <c r="H112" t="n">
-        <v>0.009644985198974609</v>
+        <v>0.0110154151916504</v>
       </c>
       <c r="I112" t="n">
-        <v>9.583508120128114e-06</v>
+        <v>9.583508120128111e-06</v>
       </c>
       <c r="J112" t="n">
         <v>130</v>
@@ -6269,7 +6269,7 @@
         <v>15</v>
       </c>
       <c r="N112" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -6293,16 +6293,16 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.367123289472916</v>
+        <v>2.36712328947292</v>
       </c>
       <c r="G113" t="n">
         <v>121</v>
       </c>
       <c r="H113" t="n">
-        <v>0.008870601654052734</v>
+        <v>0.00914311408996582</v>
       </c>
       <c r="I113" t="n">
-        <v>9.669826342924358e-06</v>
+        <v>9.66982634292436e-06</v>
       </c>
       <c r="J113" t="n">
         <v>130</v>
@@ -6321,7 +6321,7 @@
         <v>15</v>
       </c>
       <c r="N113" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.367161853537524</v>
+        <v>2.36716185353752</v>
       </c>
       <c r="G114" t="n">
         <v>124</v>
       </c>
       <c r="H114" t="n">
-        <v>0.008644819259643555</v>
+        <v>0.00828957557678223</v>
       </c>
       <c r="I114" t="n">
         <v>9.5852025601081e-06</v>
@@ -6373,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="N114" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -6397,16 +6397,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.365286322662495</v>
+        <v>2.3652863226625</v>
       </c>
       <c r="G115" t="n">
         <v>84</v>
       </c>
       <c r="H115" t="n">
-        <v>0.01289820671081543</v>
+        <v>0.0128164291381836</v>
       </c>
       <c r="I115" t="n">
-        <v>9.616418976169133e-06</v>
+        <v>9.61641897616913e-06</v>
       </c>
       <c r="J115" t="n">
         <v>130</v>
@@ -6425,7 +6425,7 @@
         <v>15</v>
       </c>
       <c r="N115" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -6449,16 +6449,16 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>127119840.5799289</v>
+        <v>127119840.579929</v>
       </c>
       <c r="G116" t="n">
         <v>335</v>
       </c>
       <c r="H116" t="n">
-        <v>1.276556015014648</v>
+        <v>1.26951003074646</v>
       </c>
       <c r="I116" t="n">
-        <v>9.950853270590775e-06</v>
+        <v>9.95085327059078e-06</v>
       </c>
       <c r="J116" t="n">
         <v>3600</v>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -6501,16 +6501,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>126665889.0410609</v>
+        <v>126665889.041061</v>
       </c>
       <c r="G117" t="n">
         <v>185</v>
       </c>
       <c r="H117" t="n">
-        <v>0.7747023105621338</v>
+        <v>0.746716737747192</v>
       </c>
       <c r="I117" t="n">
-        <v>9.959440811812839e-06</v>
+        <v>9.959440811812841e-06</v>
       </c>
       <c r="J117" t="n">
         <v>3600</v>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -6553,16 +6553,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>126814892.3686029</v>
+        <v>126814892.368603</v>
       </c>
       <c r="G118" t="n">
         <v>213</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8154916763305664</v>
+        <v>0.865925312042236</v>
       </c>
       <c r="I118" t="n">
-        <v>9.890327575186694e-06</v>
+        <v>9.890327575186689e-06</v>
       </c>
       <c r="J118" t="n">
         <v>3600</v>
@@ -6581,7 +6581,7 @@
         <v>15</v>
       </c>
       <c r="N118" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -6605,16 +6605,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>126540564.4940935</v>
+        <v>126540564.494094</v>
       </c>
       <c r="G119" t="n">
         <v>167</v>
       </c>
       <c r="H119" t="n">
-        <v>0.6446454524993896</v>
+        <v>0.702929735183716</v>
       </c>
       <c r="I119" t="n">
-        <v>9.943774271790247e-06</v>
+        <v>9.94377427179025e-06</v>
       </c>
       <c r="J119" t="n">
         <v>3600</v>
@@ -6633,7 +6633,7 @@
         <v>15</v>
       </c>
       <c r="N119" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -6657,16 +6657,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>126814892.3686029</v>
+        <v>126814892.368603</v>
       </c>
       <c r="G120" t="n">
         <v>213</v>
       </c>
       <c r="H120" t="n">
-        <v>0.930518627166748</v>
+        <v>0.887563943862915</v>
       </c>
       <c r="I120" t="n">
-        <v>9.925856679998467e-06</v>
+        <v>9.925856679998471e-06</v>
       </c>
       <c r="J120" t="n">
         <v>3600</v>
@@ -6685,7 +6685,7 @@
         <v>15</v>
       </c>
       <c r="N120" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -6709,13 +6709,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>123274618.1898186</v>
+        <v>123274618.189819</v>
       </c>
       <c r="G121" t="n">
         <v>56</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2537586688995361</v>
+        <v>0.250155925750732</v>
       </c>
       <c r="I121" t="n">
         <v>3.98400128653237e-06</v>
@@ -6737,7 +6737,7 @@
         <v>15</v>
       </c>
       <c r="N121" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -6761,16 +6761,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>67579067.21497774</v>
+        <v>67579067.2149777</v>
       </c>
       <c r="G122" t="n">
         <v>220</v>
       </c>
       <c r="H122" t="n">
-        <v>0.04180407524108887</v>
+        <v>0.0809602737426758</v>
       </c>
       <c r="I122" t="n">
-        <v>9.756365027126536e-06</v>
+        <v>9.75636502712654e-06</v>
       </c>
       <c r="J122" t="n">
         <v>1083</v>
@@ -6786,10 +6786,10 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>66842601.59795048</v>
+        <v>66842601.5979505</v>
       </c>
       <c r="G123" t="n">
         <v>90</v>
       </c>
       <c r="H123" t="n">
-        <v>0.02699041366577148</v>
+        <v>0.0301494598388672</v>
       </c>
       <c r="I123" t="n">
-        <v>8.224602928185185e-06</v>
+        <v>8.22460292818519e-06</v>
       </c>
       <c r="J123" t="n">
         <v>1083</v>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -6871,10 +6871,10 @@
         <v>211</v>
       </c>
       <c r="H124" t="n">
-        <v>0.08186769485473633</v>
+        <v>0.075192928314209</v>
       </c>
       <c r="I124" t="n">
-        <v>9.878532975919532e-06</v>
+        <v>9.87853297591953e-06</v>
       </c>
       <c r="J124" t="n">
         <v>1083</v>
@@ -6893,7 +6893,7 @@
         <v>15</v>
       </c>
       <c r="N124" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -6917,16 +6917,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>67565831.87016964</v>
+        <v>67565831.87016959</v>
       </c>
       <c r="G125" t="n">
         <v>204</v>
       </c>
       <c r="H125" t="n">
-        <v>0.09408783912658691</v>
+        <v>0.0638465881347656</v>
       </c>
       <c r="I125" t="n">
-        <v>9.926633818095487e-06</v>
+        <v>9.926633818095491e-06</v>
       </c>
       <c r="J125" t="n">
         <v>1083</v>
@@ -6945,7 +6945,7 @@
         <v>15</v>
       </c>
       <c r="N125" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -6975,10 +6975,10 @@
         <v>211</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0826716423034668</v>
+        <v>0.0459012985229492</v>
       </c>
       <c r="I126" t="n">
-        <v>9.884638437771482e-06</v>
+        <v>9.88463843777148e-06</v>
       </c>
       <c r="J126" t="n">
         <v>1083</v>
@@ -6997,7 +6997,7 @@
         <v>15</v>
       </c>
       <c r="N126" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -7021,16 +7021,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>66702036.20602759</v>
+        <v>66702036.2060276</v>
       </c>
       <c r="G127" t="n">
         <v>82</v>
       </c>
       <c r="H127" t="n">
-        <v>0.05594253540039062</v>
+        <v>0.0272619724273682</v>
       </c>
       <c r="I127" t="n">
-        <v>9.334174791834814e-06</v>
+        <v>9.33417479183481e-06</v>
       </c>
       <c r="J127" t="n">
         <v>1083</v>
@@ -7049,7 +7049,7 @@
         <v>15</v>
       </c>
       <c r="N127" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -7073,13 +7073,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5.783741344069723</v>
+        <v>5.78374134406972</v>
       </c>
       <c r="G128" t="n">
         <v>152</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1002271175384521</v>
+        <v>0.08009934425354</v>
       </c>
       <c r="I128" t="n">
         <v>9.889266292128169e-06</v>
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5.765054880341849</v>
+        <v>5.76505488034185</v>
       </c>
       <c r="G129" t="n">
         <v>57</v>
       </c>
       <c r="H129" t="n">
-        <v>0.03487014770507812</v>
+        <v>0.031123161315918</v>
       </c>
       <c r="I129" t="n">
-        <v>9.119336362863703e-06</v>
+        <v>9.1193363628637e-06</v>
       </c>
       <c r="J129" t="n">
         <v>1624</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -7177,16 +7177,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5.782367144138735</v>
+        <v>5.78236714413874</v>
       </c>
       <c r="G130" t="n">
         <v>133</v>
       </c>
       <c r="H130" t="n">
-        <v>0.09031105041503906</v>
+        <v>0.089963436126709</v>
       </c>
       <c r="I130" t="n">
-        <v>9.904628071408421e-06</v>
+        <v>9.90462807140842e-06</v>
       </c>
       <c r="J130" t="n">
         <v>1624</v>
@@ -7205,7 +7205,7 @@
         <v>15</v>
       </c>
       <c r="N130" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5.761568644011935</v>
+        <v>5.76156864401194</v>
       </c>
       <c r="G131" t="n">
         <v>49</v>
       </c>
       <c r="H131" t="n">
-        <v>0.03024649620056152</v>
+        <v>0.0314154624938965</v>
       </c>
       <c r="I131" t="n">
-        <v>7.125249621742016e-06</v>
+        <v>7.12524962174202e-06</v>
       </c>
       <c r="J131" t="n">
         <v>1624</v>
@@ -7257,7 +7257,7 @@
         <v>15</v>
       </c>
       <c r="N131" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -7281,13 +7281,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5.782367144138735</v>
+        <v>5.78236714413874</v>
       </c>
       <c r="G132" t="n">
         <v>133</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07958865165710449</v>
+        <v>0.0890574455261231</v>
       </c>
       <c r="I132" t="n">
         <v>9.91337010842544e-06</v>
@@ -7309,7 +7309,7 @@
         <v>15</v>
       </c>
       <c r="N132" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -7333,13 +7333,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>5.762477916536941</v>
+        <v>5.76247791653694</v>
       </c>
       <c r="G133" t="n">
         <v>51</v>
       </c>
       <c r="H133" t="n">
-        <v>0.03386473655700684</v>
+        <v>0.0533814430236816</v>
       </c>
       <c r="I133" t="n">
         <v>9.242658297706899e-06</v>
@@ -7361,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="N133" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3112885321254.005</v>
+        <v>3112885321254</v>
       </c>
       <c r="G134" t="n">
         <v>176</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1712534427642822</v>
+        <v>0.15102744102478</v>
       </c>
       <c r="I134" t="n">
         <v>9.93062770802346e-06</v>
@@ -7410,10 +7410,10 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7437,16 +7437,16 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3110907462318.414</v>
+        <v>3110907462318.41</v>
       </c>
       <c r="G135" t="n">
         <v>130</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1582860946655273</v>
+        <v>0.113462448120117</v>
       </c>
       <c r="I135" t="n">
-        <v>9.719535900029396e-06</v>
+        <v>9.7195359000294e-06</v>
       </c>
       <c r="J135" t="n">
         <v>2003</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -7489,16 +7489,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3102363357664.458</v>
+        <v>3102363357664.46</v>
       </c>
       <c r="G136" t="n">
         <v>35</v>
       </c>
       <c r="H136" t="n">
-        <v>0.03477001190185547</v>
+        <v>0.0341312885284424</v>
       </c>
       <c r="I136" t="n">
-        <v>5.688881501676798e-06</v>
+        <v>5.6888815016768e-06</v>
       </c>
       <c r="J136" t="n">
         <v>2003</v>
@@ -7517,7 +7517,7 @@
         <v>15</v>
       </c>
       <c r="N136" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -7541,16 +7541,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3102021391341.459</v>
+        <v>3102021391341.46</v>
       </c>
       <c r="G137" t="n">
         <v>32</v>
       </c>
       <c r="H137" t="n">
-        <v>0.02920961380004883</v>
+        <v>0.0313088893890381</v>
       </c>
       <c r="I137" t="n">
-        <v>3.130738782887322e-07</v>
+        <v>3.13073878288732e-07</v>
       </c>
       <c r="J137" t="n">
         <v>2003</v>
@@ -7569,7 +7569,7 @@
         <v>15</v>
       </c>
       <c r="N137" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -7593,16 +7593,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3102363357664.458</v>
+        <v>3102363357664.46</v>
       </c>
       <c r="G138" t="n">
         <v>35</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03341150283813477</v>
+        <v>0.0363082885742187</v>
       </c>
       <c r="I138" t="n">
-        <v>5.722629798368076e-06</v>
+        <v>5.72262979836808e-06</v>
       </c>
       <c r="J138" t="n">
         <v>2003</v>
@@ -7621,7 +7621,7 @@
         <v>15</v>
       </c>
       <c r="N138" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139">
@@ -7645,13 +7645,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3102249480781.392</v>
+        <v>3102249480781.39</v>
       </c>
       <c r="G139" t="n">
         <v>34</v>
       </c>
       <c r="H139" t="n">
-        <v>0.05980682373046875</v>
+        <v>0.0367722511291504</v>
       </c>
       <c r="I139" t="n">
         <v>9.64848538902795e-06</v>
@@ -7673,7 +7673,7 @@
         <v>15</v>
       </c>
       <c r="N139" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -7697,16 +7697,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>39536719.78976859</v>
+        <v>39536719.7897686</v>
       </c>
       <c r="G140" t="n">
         <v>130</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01468253135681152</v>
+        <v>0.008371353149414061</v>
       </c>
       <c r="I140" t="n">
-        <v>9.577905122535048e-06</v>
+        <v>9.57790512253505e-06</v>
       </c>
       <c r="J140" t="n">
         <v>817</v>
@@ -7722,10 +7722,10 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -7749,16 +7749,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>39491518.38471355</v>
+        <v>39491518.3847136</v>
       </c>
       <c r="G141" t="n">
         <v>87</v>
       </c>
       <c r="H141" t="n">
-        <v>0.009171485900878906</v>
+        <v>0.00557136535644531</v>
       </c>
       <c r="I141" t="n">
-        <v>9.757291252869126e-06</v>
+        <v>9.757291252869129e-06</v>
       </c>
       <c r="J141" t="n">
         <v>817</v>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -7801,13 +7801,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>39088018.36906568</v>
+        <v>39088018.3690657</v>
       </c>
       <c r="G142" t="n">
         <v>23</v>
       </c>
       <c r="H142" t="n">
-        <v>0.002851724624633789</v>
+        <v>0.0030364990234375</v>
       </c>
       <c r="I142" t="n">
         <v>9.159444091140101e-06</v>
@@ -7829,7 +7829,7 @@
         <v>15</v>
       </c>
       <c r="N142" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -7853,16 +7853,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>39353550.72124196</v>
+        <v>39353550.721242</v>
       </c>
       <c r="G143" t="n">
         <v>54</v>
       </c>
       <c r="H143" t="n">
-        <v>0.007636785507202148</v>
+        <v>0.00697398185729981</v>
       </c>
       <c r="I143" t="n">
-        <v>5.129629570917855e-06</v>
+        <v>5.12962957091786e-06</v>
       </c>
       <c r="J143" t="n">
         <v>817</v>
@@ -7881,7 +7881,7 @@
         <v>15</v>
       </c>
       <c r="N143" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -7905,16 +7905,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>39154802.15322521</v>
+        <v>39154802.1532252</v>
       </c>
       <c r="G144" t="n">
         <v>30</v>
       </c>
       <c r="H144" t="n">
-        <v>0.003519773483276367</v>
+        <v>0.00342607498168945</v>
       </c>
       <c r="I144" t="n">
-        <v>7.981954435640297e-06</v>
+        <v>7.9819544356403e-06</v>
       </c>
       <c r="J144" t="n">
         <v>817</v>
@@ -7933,7 +7933,7 @@
         <v>15</v>
       </c>
       <c r="N144" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>39107119.13912044</v>
+        <v>39107119.1391204</v>
       </c>
       <c r="G145" t="n">
         <v>25</v>
       </c>
       <c r="H145" t="n">
-        <v>0.003728628158569336</v>
+        <v>0.00489163398742676</v>
       </c>
       <c r="I145" t="n">
-        <v>8.710189471974711e-07</v>
+        <v>8.71018947197471e-07</v>
       </c>
       <c r="J145" t="n">
         <v>817</v>
@@ -7985,7 +7985,7 @@
         <v>15</v>
       </c>
       <c r="N145" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -8009,13 +8009,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5.177624323644659</v>
+        <v>5.17762432364466</v>
       </c>
       <c r="G146" t="n">
         <v>81</v>
       </c>
       <c r="H146" t="n">
-        <v>0.002256393432617188</v>
+        <v>0.00214958190917969</v>
       </c>
       <c r="I146" t="n">
         <v>9.73215531173906e-06</v>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5.158442555151209</v>
+        <v>5.15844255515121</v>
       </c>
       <c r="G147" t="n">
         <v>34</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0008771419525146484</v>
+        <v>0.00118803977966309</v>
       </c>
       <c r="I147" t="n">
-        <v>4.081601348667869e-06</v>
+        <v>4.08160134866787e-06</v>
       </c>
       <c r="J147" t="n">
         <v>443</v>
@@ -8086,10 +8086,10 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -8119,10 +8119,10 @@
         <v>112</v>
       </c>
       <c r="H148" t="n">
-        <v>0.009523630142211914</v>
+        <v>0.0103874206542969</v>
       </c>
       <c r="I148" t="n">
-        <v>9.383000923135225e-06</v>
+        <v>9.38300092313522e-06</v>
       </c>
       <c r="J148" t="n">
         <v>443</v>
@@ -8141,7 +8141,7 @@
         <v>25</v>
       </c>
       <c r="N148" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -8165,16 +8165,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.178204223632964</v>
+        <v>5.17820422363296</v>
       </c>
       <c r="G149" t="n">
         <v>110</v>
       </c>
       <c r="H149" t="n">
-        <v>0.008902072906494141</v>
+        <v>0.0094301700592041</v>
       </c>
       <c r="I149" t="n">
-        <v>9.348595365109261e-06</v>
+        <v>9.348595365109259e-06</v>
       </c>
       <c r="J149" t="n">
         <v>443</v>
@@ -8193,7 +8193,7 @@
         <v>25</v>
       </c>
       <c r="N149" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -8223,10 +8223,10 @@
         <v>112</v>
       </c>
       <c r="H150" t="n">
-        <v>0.00855708122253418</v>
+        <v>0.00854015350341797</v>
       </c>
       <c r="I150" t="n">
-        <v>9.383561863378866e-06</v>
+        <v>9.38356186337887e-06</v>
       </c>
       <c r="J150" t="n">
         <v>443</v>
@@ -8245,7 +8245,7 @@
         <v>25</v>
       </c>
       <c r="N150" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -8269,16 +8269,16 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5.177967658176262</v>
+        <v>5.17796765817626</v>
       </c>
       <c r="G151" t="n">
         <v>91</v>
       </c>
       <c r="H151" t="n">
-        <v>0.01314830780029297</v>
+        <v>0.0169649124145508</v>
       </c>
       <c r="I151" t="n">
-        <v>9.347327562655672e-06</v>
+        <v>9.347327562655671e-06</v>
       </c>
       <c r="J151" t="n">
         <v>443</v>
@@ -8297,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="N151" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -8321,16 +8321,16 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>8.235967774192392</v>
+        <v>8.235967774192391</v>
       </c>
       <c r="G152" t="n">
         <v>82</v>
       </c>
       <c r="H152" t="n">
-        <v>0.001284599304199219</v>
+        <v>0.00137162208557129</v>
       </c>
       <c r="I152" t="n">
-        <v>9.610906841174262e-06</v>
+        <v>9.61090684117426e-06</v>
       </c>
       <c r="J152" t="n">
         <v>198</v>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -8379,7 +8379,7 @@
         <v>20</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0003175735473632812</v>
+        <v>0.000317811965942383</v>
       </c>
       <c r="I153" t="n">
         <v>6.14552676886002e-06</v>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -8425,16 +8425,16 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>8.237264968699934</v>
+        <v>8.237264968699931</v>
       </c>
       <c r="G154" t="n">
         <v>106</v>
       </c>
       <c r="H154" t="n">
-        <v>0.006992578506469727</v>
+        <v>0.00827360153198242</v>
       </c>
       <c r="I154" t="n">
-        <v>9.659270298143206e-06</v>
+        <v>9.659270298143209e-06</v>
       </c>
       <c r="J154" t="n">
         <v>198</v>
@@ -8453,7 +8453,7 @@
         <v>25</v>
       </c>
       <c r="N154" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
@@ -8477,16 +8477,16 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>8.236968154616195</v>
+        <v>8.236968154616189</v>
       </c>
       <c r="G155" t="n">
         <v>99</v>
       </c>
       <c r="H155" t="n">
-        <v>0.006266117095947266</v>
+        <v>0.00731372833251953</v>
       </c>
       <c r="I155" t="n">
-        <v>9.854447683446247e-06</v>
+        <v>9.85444768344625e-06</v>
       </c>
       <c r="J155" t="n">
         <v>198</v>
@@ -8505,7 +8505,7 @@
         <v>25</v>
       </c>
       <c r="N155" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
@@ -8529,16 +8529,16 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8.237264968699934</v>
+        <v>8.237264968699931</v>
       </c>
       <c r="G156" t="n">
         <v>106</v>
       </c>
       <c r="H156" t="n">
-        <v>0.006040334701538086</v>
+        <v>0.007080078125</v>
       </c>
       <c r="I156" t="n">
-        <v>9.662206628704058e-06</v>
+        <v>9.662206628704059e-06</v>
       </c>
       <c r="J156" t="n">
         <v>198</v>
@@ -8557,7 +8557,7 @@
         <v>25</v>
       </c>
       <c r="N156" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
@@ -8581,16 +8581,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8.235888619073368</v>
+        <v>8.23588861907337</v>
       </c>
       <c r="G157" t="n">
         <v>81</v>
       </c>
       <c r="H157" t="n">
-        <v>0.01180887222290039</v>
+        <v>0.0131106376647949</v>
       </c>
       <c r="I157" t="n">
-        <v>9.712669061972964e-06</v>
+        <v>9.71266906197296e-06</v>
       </c>
       <c r="J157" t="n">
         <v>198</v>
@@ -8609,7 +8609,7 @@
         <v>25</v>
       </c>
       <c r="N157" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -8633,16 +8633,16 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>5.664183085589989</v>
+        <v>5.66418308558999</v>
       </c>
       <c r="G158" t="n">
         <v>99</v>
       </c>
       <c r="H158" t="n">
-        <v>0.04785656929016113</v>
+        <v>0.0834314823150635</v>
       </c>
       <c r="I158" t="n">
-        <v>9.887257321542167e-06</v>
+        <v>9.88725732154217e-06</v>
       </c>
       <c r="J158" t="n">
         <v>1612</v>
@@ -8658,10 +8658,10 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -8685,16 +8685,16 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>5.644495706012883</v>
+        <v>5.64449570601288</v>
       </c>
       <c r="G159" t="n">
         <v>42</v>
       </c>
       <c r="H159" t="n">
-        <v>0.01949405670166016</v>
+        <v>0.0335631370544434</v>
       </c>
       <c r="I159" t="n">
-        <v>1.125279261864306e-07</v>
+        <v>1.12527926186431e-07</v>
       </c>
       <c r="J159" t="n">
         <v>1612</v>
@@ -8710,10 +8710,10 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -8737,16 +8737,16 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5.665001409813681</v>
+        <v>5.66500140981368</v>
       </c>
       <c r="G160" t="n">
         <v>131</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0774683952331543</v>
+        <v>0.0811676979064941</v>
       </c>
       <c r="I160" t="n">
-        <v>9.736177365207033e-06</v>
+        <v>9.736177365207029e-06</v>
       </c>
       <c r="J160" t="n">
         <v>1612</v>
@@ -8765,7 +8765,7 @@
         <v>25</v>
       </c>
       <c r="N160" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5.664971124083623</v>
+        <v>5.66497112408362</v>
       </c>
       <c r="G161" t="n">
         <v>128</v>
       </c>
       <c r="H161" t="n">
-        <v>0.08322763442993164</v>
+        <v>0.0795295238494873</v>
       </c>
       <c r="I161" t="n">
         <v>9.676112924027951e-06</v>
@@ -8817,7 +8817,7 @@
         <v>25</v>
       </c>
       <c r="N161" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -8841,16 +8841,16 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5.665001409813681</v>
+        <v>5.66500140981368</v>
       </c>
       <c r="G162" t="n">
         <v>131</v>
       </c>
       <c r="H162" t="n">
-        <v>0.08624410629272461</v>
+        <v>0.08376550674438479</v>
       </c>
       <c r="I162" t="n">
-        <v>9.737083782402438e-06</v>
+        <v>9.73708378240244e-06</v>
       </c>
       <c r="J162" t="n">
         <v>1612</v>
@@ -8869,7 +8869,7 @@
         <v>25</v>
       </c>
       <c r="N162" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
@@ -8893,16 +8893,16 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5.664005417766468</v>
+        <v>5.66400541776647</v>
       </c>
       <c r="G163" t="n">
         <v>96</v>
       </c>
       <c r="H163" t="n">
-        <v>0.08801364898681641</v>
+        <v>0.06990599632263179</v>
       </c>
       <c r="I163" t="n">
-        <v>9.801164461761107e-06</v>
+        <v>9.801164461761111e-06</v>
       </c>
       <c r="J163" t="n">
         <v>1612</v>
@@ -8921,7 +8921,7 @@
         <v>25</v>
       </c>
       <c r="N163" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
@@ -8945,16 +8945,16 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>13.85636022094015</v>
+        <v>13.8563602209402</v>
       </c>
       <c r="G164" t="n">
         <v>74</v>
       </c>
       <c r="H164" t="n">
-        <v>0.003024816513061523</v>
+        <v>0.00274252891540527</v>
       </c>
       <c r="I164" t="n">
-        <v>9.868273052810091e-06</v>
+        <v>9.86827305281009e-06</v>
       </c>
       <c r="J164" t="n">
         <v>634</v>
@@ -8970,10 +8970,10 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>13.85335522354526</v>
+        <v>13.8533552235453</v>
       </c>
       <c r="G165" t="n">
         <v>56</v>
       </c>
       <c r="H165" t="n">
-        <v>0.001990795135498047</v>
+        <v>0.00206661224365234</v>
       </c>
       <c r="I165" t="n">
-        <v>9.058097463115668e-06</v>
+        <v>9.058097463115669e-06</v>
       </c>
       <c r="J165" t="n">
         <v>634</v>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -9049,13 +9049,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>13.85878273438705</v>
+        <v>13.8587827343871</v>
       </c>
       <c r="G166" t="n">
         <v>97</v>
       </c>
       <c r="H166" t="n">
-        <v>0.008660078048706055</v>
+        <v>0.0103387832641602</v>
       </c>
       <c r="I166" t="n">
         <v>9.799313595498219e-06</v>
@@ -9077,7 +9077,7 @@
         <v>25</v>
       </c>
       <c r="N166" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
@@ -9101,16 +9101,16 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>13.85413377676265</v>
+        <v>13.8541337767627</v>
       </c>
       <c r="G167" t="n">
         <v>60</v>
       </c>
       <c r="H167" t="n">
-        <v>0.004621982574462891</v>
+        <v>0.00717878341674805</v>
       </c>
       <c r="I167" t="n">
-        <v>9.262347987273678e-06</v>
+        <v>9.26234798727368e-06</v>
       </c>
       <c r="J167" t="n">
         <v>634</v>
@@ -9129,7 +9129,7 @@
         <v>25</v>
       </c>
       <c r="N167" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -9153,16 +9153,16 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>13.85878273438705</v>
+        <v>13.8587827343871</v>
       </c>
       <c r="G168" t="n">
         <v>97</v>
       </c>
       <c r="H168" t="n">
-        <v>0.007701396942138672</v>
+        <v>0.00962042808532715</v>
       </c>
       <c r="I168" t="n">
-        <v>9.803276675628013e-06</v>
+        <v>9.80327667562801e-06</v>
       </c>
       <c r="J168" t="n">
         <v>634</v>
@@ -9181,7 +9181,7 @@
         <v>25</v>
       </c>
       <c r="N168" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -9205,16 +9205,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>13.85375361925622</v>
+        <v>13.8537536192562</v>
       </c>
       <c r="G169" t="n">
         <v>58</v>
       </c>
       <c r="H169" t="n">
-        <v>0.007483005523681641</v>
+        <v>0.0104706287384033</v>
       </c>
       <c r="I169" t="n">
-        <v>8.460540617656868e-06</v>
+        <v>8.46054061765687e-06</v>
       </c>
       <c r="J169" t="n">
         <v>634</v>
@@ -9233,7 +9233,7 @@
         <v>25</v>
       </c>
       <c r="N169" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -9257,16 +9257,16 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.618009280534263</v>
+        <v>5.61800928053426</v>
       </c>
       <c r="G170" t="n">
         <v>124</v>
       </c>
       <c r="H170" t="n">
-        <v>0.04082775115966797</v>
+        <v>0.050523042678833</v>
       </c>
       <c r="I170" t="n">
-        <v>9.976989305980093e-06</v>
+        <v>9.976989305980091e-06</v>
       </c>
       <c r="J170" t="n">
         <v>1454</v>
@@ -9282,10 +9282,10 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -9315,10 +9315,10 @@
         <v>49</v>
       </c>
       <c r="H171" t="n">
-        <v>0.01614475250244141</v>
+        <v>0.020092248916626</v>
       </c>
       <c r="I171" t="n">
-        <v>3.579918195761039e-06</v>
+        <v>3.57991819576104e-06</v>
       </c>
       <c r="J171" t="n">
         <v>1454</v>
@@ -9334,10 +9334,10 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -9361,16 +9361,16 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.619043164080828</v>
+        <v>5.61904316408083</v>
       </c>
       <c r="G172" t="n">
         <v>156</v>
       </c>
       <c r="H172" t="n">
-        <v>0.06572628021240234</v>
+        <v>0.0837094783782959</v>
       </c>
       <c r="I172" t="n">
-        <v>9.688390580612764e-06</v>
+        <v>9.68839058061276e-06</v>
       </c>
       <c r="J172" t="n">
         <v>1454</v>
@@ -9389,7 +9389,7 @@
         <v>25</v>
       </c>
       <c r="N172" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -9419,10 +9419,10 @@
         <v>150</v>
       </c>
       <c r="H173" t="n">
-        <v>0.06344866752624512</v>
+        <v>0.0839321613311768</v>
       </c>
       <c r="I173" t="n">
-        <v>9.688675874046447e-06</v>
+        <v>9.68867587404645e-06</v>
       </c>
       <c r="J173" t="n">
         <v>1454</v>
@@ -9441,7 +9441,7 @@
         <v>25</v>
       </c>
       <c r="N173" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -9465,16 +9465,16 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.619043164080828</v>
+        <v>5.61904316408083</v>
       </c>
       <c r="G174" t="n">
         <v>156</v>
       </c>
       <c r="H174" t="n">
-        <v>0.06793379783630371</v>
+        <v>0.0995919704437256</v>
       </c>
       <c r="I174" t="n">
-        <v>9.690069517694653e-06</v>
+        <v>9.690069517694649e-06</v>
       </c>
       <c r="J174" t="n">
         <v>1454</v>
@@ -9493,7 +9493,7 @@
         <v>25</v>
       </c>
       <c r="N174" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -9517,16 +9517,16 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.608751963274263</v>
+        <v>5.60875196327426</v>
       </c>
       <c r="G175" t="n">
         <v>69</v>
       </c>
       <c r="H175" t="n">
-        <v>0.04000091552734375</v>
+        <v>0.0457158088684082</v>
       </c>
       <c r="I175" t="n">
-        <v>9.920885435891092e-06</v>
+        <v>9.92088543589109e-06</v>
       </c>
       <c r="J175" t="n">
         <v>1454</v>
@@ -9545,7 +9545,7 @@
         <v>25</v>
       </c>
       <c r="N175" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -9575,10 +9575,10 @@
         <v>134</v>
       </c>
       <c r="H176" t="n">
-        <v>0.001450300216674805</v>
+        <v>0.00140047073364258</v>
       </c>
       <c r="I176" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.8212278755997e-06</v>
       </c>
       <c r="J176" t="n">
         <v>48</v>
@@ -9594,10 +9594,10 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -9621,16 +9621,16 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3011156754.072117</v>
+        <v>3011156754.07212</v>
       </c>
       <c r="G177" t="n">
         <v>85</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0008232593536376953</v>
+        <v>0.000873088836669922</v>
       </c>
       <c r="I177" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.6768023857551e-06</v>
       </c>
       <c r="J177" t="n">
         <v>48</v>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -9673,16 +9673,16 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3014741623.630409</v>
+        <v>3014741623.63041</v>
       </c>
       <c r="G178" t="n">
         <v>162</v>
       </c>
       <c r="H178" t="n">
-        <v>0.01159405708312988</v>
+        <v>0.0108563899993897</v>
       </c>
       <c r="I178" t="n">
-        <v>9.960671255891935e-06</v>
+        <v>9.96067125589194e-06</v>
       </c>
       <c r="J178" t="n">
         <v>48</v>
@@ -9701,7 +9701,7 @@
         <v>25</v>
       </c>
       <c r="N178" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -9725,16 +9725,16 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3008011981.594527</v>
+        <v>3008011981.59453</v>
       </c>
       <c r="G179" t="n">
         <v>63</v>
       </c>
       <c r="H179" t="n">
-        <v>0.002758979797363281</v>
+        <v>0.00395631790161133</v>
       </c>
       <c r="I179" t="n">
-        <v>8.028180315089716e-06</v>
+        <v>8.02818031508972e-06</v>
       </c>
       <c r="J179" t="n">
         <v>48</v>
@@ -9753,7 +9753,7 @@
         <v>25</v>
       </c>
       <c r="N179" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -9777,16 +9777,16 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3014741623.630409</v>
+        <v>3014741623.63041</v>
       </c>
       <c r="G180" t="n">
         <v>162</v>
       </c>
       <c r="H180" t="n">
-        <v>0.008723258972167969</v>
+        <v>0.008923768997192379</v>
       </c>
       <c r="I180" t="n">
-        <v>9.963346549046657e-06</v>
+        <v>9.963346549046661e-06</v>
       </c>
       <c r="J180" t="n">
         <v>48</v>
@@ -9805,7 +9805,7 @@
         <v>25</v>
       </c>
       <c r="N180" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
@@ -9829,16 +9829,16 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3002601771.579343</v>
+        <v>3002601771.57934</v>
       </c>
       <c r="G181" t="n">
         <v>39</v>
       </c>
       <c r="H181" t="n">
-        <v>0.002607583999633789</v>
+        <v>0.0048675537109375</v>
       </c>
       <c r="I181" t="n">
-        <v>3.373239554153644e-06</v>
+        <v>3.37323955415364e-06</v>
       </c>
       <c r="J181" t="n">
         <v>48</v>
@@ -9857,7 +9857,7 @@
         <v>25</v>
       </c>
       <c r="N181" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
@@ -9881,16 +9881,16 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2.366980478285793</v>
+        <v>2.36698047828579</v>
       </c>
       <c r="G182" t="n">
         <v>113</v>
       </c>
       <c r="H182" t="n">
-        <v>0.001707315444946289</v>
+        <v>0.00153803825378418</v>
       </c>
       <c r="I182" t="n">
-        <v>9.718522766616134e-06</v>
+        <v>9.718522766616129e-06</v>
       </c>
       <c r="J182" t="n">
         <v>130</v>
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2.341827745527051</v>
+        <v>2.34182774552705</v>
       </c>
       <c r="G183" t="n">
         <v>39</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0006160736083984375</v>
+        <v>0.000548839569091797</v>
       </c>
       <c r="I183" t="n">
-        <v>6.624151165445741e-06</v>
+        <v>6.62415116544574e-06</v>
       </c>
       <c r="J183" t="n">
         <v>130</v>
@@ -9958,10 +9958,10 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -9985,16 +9985,16 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.367300940986009</v>
+        <v>2.36730094098601</v>
       </c>
       <c r="G184" t="n">
         <v>144</v>
       </c>
       <c r="H184" t="n">
-        <v>0.01169991493225098</v>
+        <v>0.0114593505859375</v>
       </c>
       <c r="I184" t="n">
-        <v>9.992333694455869e-06</v>
+        <v>9.99233369445587e-06</v>
       </c>
       <c r="J184" t="n">
         <v>130</v>
@@ -10013,7 +10013,7 @@
         <v>25</v>
       </c>
       <c r="N184" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
@@ -10037,16 +10037,16 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2.367293132578729</v>
+        <v>2.36729313257873</v>
       </c>
       <c r="G185" t="n">
         <v>142</v>
       </c>
       <c r="H185" t="n">
-        <v>0.010467529296875</v>
+        <v>0.010695219039917</v>
       </c>
       <c r="I185" t="n">
-        <v>9.721582394054875e-06</v>
+        <v>9.72158239405488e-06</v>
       </c>
       <c r="J185" t="n">
         <v>130</v>
@@ -10065,7 +10065,7 @@
         <v>25</v>
       </c>
       <c r="N185" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
@@ -10089,16 +10089,16 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2.367300940986009</v>
+        <v>2.36730094098601</v>
       </c>
       <c r="G186" t="n">
         <v>144</v>
       </c>
       <c r="H186" t="n">
-        <v>0.01140403747558594</v>
+        <v>0.0102944374084473</v>
       </c>
       <c r="I186" t="n">
-        <v>9.993224733892507e-06</v>
+        <v>9.99322473389251e-06</v>
       </c>
       <c r="J186" t="n">
         <v>130</v>
@@ -10117,7 +10117,7 @@
         <v>25</v>
       </c>
       <c r="N186" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187">
@@ -10141,16 +10141,16 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.367002178078028</v>
+        <v>2.36700217807803</v>
       </c>
       <c r="G187" t="n">
         <v>114</v>
       </c>
       <c r="H187" t="n">
-        <v>0.01665973663330078</v>
+        <v>0.0179257392883301</v>
       </c>
       <c r="I187" t="n">
-        <v>9.671880882681577e-06</v>
+        <v>9.671880882681581e-06</v>
       </c>
       <c r="J187" t="n">
         <v>130</v>
@@ -10169,7 +10169,7 @@
         <v>25</v>
       </c>
       <c r="N187" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -10193,16 +10193,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>127119840.5799289</v>
+        <v>127119840.579929</v>
       </c>
       <c r="G188" t="n">
         <v>335</v>
       </c>
       <c r="H188" t="n">
-        <v>1.242172479629517</v>
+        <v>1.34469509124756</v>
       </c>
       <c r="I188" t="n">
-        <v>9.950853270590775e-06</v>
+        <v>9.95085327059078e-06</v>
       </c>
       <c r="J188" t="n">
         <v>3600</v>
@@ -10218,10 +10218,10 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -10245,16 +10245,16 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>126665889.0410609</v>
+        <v>126665889.041061</v>
       </c>
       <c r="G189" t="n">
         <v>185</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6892549991607666</v>
+        <v>0.666097164154053</v>
       </c>
       <c r="I189" t="n">
-        <v>9.959440811812839e-06</v>
+        <v>9.959440811812841e-06</v>
       </c>
       <c r="J189" t="n">
         <v>3600</v>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -10297,13 +10297,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>127056546.4142971</v>
+        <v>127056546.414297</v>
       </c>
       <c r="G190" t="n">
         <v>294</v>
       </c>
       <c r="H190" t="n">
-        <v>1.241048097610474</v>
+        <v>1.15317249298096</v>
       </c>
       <c r="I190" t="n">
         <v>9.98371352462613e-06</v>
@@ -10325,7 +10325,7 @@
         <v>25</v>
       </c>
       <c r="N190" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -10349,16 +10349,16 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>126968955.6356403</v>
+        <v>126968955.63564</v>
       </c>
       <c r="G191" t="n">
         <v>256</v>
       </c>
       <c r="H191" t="n">
-        <v>1.032351970672607</v>
+        <v>1.05546927452087</v>
       </c>
       <c r="I191" t="n">
-        <v>9.922753879272577e-06</v>
+        <v>9.92275387927258e-06</v>
       </c>
       <c r="J191" t="n">
         <v>3600</v>
@@ -10377,7 +10377,7 @@
         <v>25</v>
       </c>
       <c r="N191" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -10401,16 +10401,16 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>127058415.6753142</v>
+        <v>127058415.675314</v>
       </c>
       <c r="G192" t="n">
         <v>295</v>
       </c>
       <c r="H192" t="n">
-        <v>1.28742527961731</v>
+        <v>1.27068972587585</v>
       </c>
       <c r="I192" t="n">
-        <v>9.880731459433235e-06</v>
+        <v>9.88073145943324e-06</v>
       </c>
       <c r="J192" t="n">
         <v>3600</v>
@@ -10429,7 +10429,7 @@
         <v>25</v>
       </c>
       <c r="N192" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193">
@@ -10459,10 +10459,10 @@
         <v>129</v>
       </c>
       <c r="H193" t="n">
-        <v>0.531306266784668</v>
+        <v>0.512271165847778</v>
       </c>
       <c r="I193" t="n">
-        <v>9.835591791119154e-06</v>
+        <v>9.83559179111915e-06</v>
       </c>
       <c r="J193" t="n">
         <v>3600</v>
@@ -10481,7 +10481,7 @@
         <v>25</v>
       </c>
       <c r="N193" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
@@ -10505,16 +10505,16 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>67579067.21497774</v>
+        <v>67579067.2149777</v>
       </c>
       <c r="G194" t="n">
         <v>220</v>
       </c>
       <c r="H194" t="n">
-        <v>0.03414463996887207</v>
+        <v>0.0294535160064697</v>
       </c>
       <c r="I194" t="n">
-        <v>9.756365027126536e-06</v>
+        <v>9.75636502712654e-06</v>
       </c>
       <c r="J194" t="n">
         <v>1083</v>
@@ -10530,10 +10530,10 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -10557,16 +10557,16 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>66842601.59795048</v>
+        <v>66842601.5979505</v>
       </c>
       <c r="G195" t="n">
         <v>90</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01327705383300781</v>
+        <v>0.0116949081420898</v>
       </c>
       <c r="I195" t="n">
-        <v>8.224602928185185e-06</v>
+        <v>8.22460292818519e-06</v>
       </c>
       <c r="J195" t="n">
         <v>1083</v>
@@ -10582,10 +10582,10 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -10609,13 +10609,13 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>67591544.83938967</v>
+        <v>67591544.8393897</v>
       </c>
       <c r="G196" t="n">
         <v>248</v>
       </c>
       <c r="H196" t="n">
-        <v>0.06072068214416504</v>
+        <v>0.061537504196167</v>
       </c>
       <c r="I196" t="n">
         <v>9.75833165145086e-06</v>
@@ -10637,7 +10637,7 @@
         <v>25</v>
       </c>
       <c r="N196" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197">
@@ -10661,13 +10661,13 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>67589644.26981033</v>
+        <v>67589644.2698103</v>
       </c>
       <c r="G197" t="n">
         <v>242</v>
       </c>
       <c r="H197" t="n">
-        <v>0.05684804916381836</v>
+        <v>0.07812404632568359</v>
       </c>
       <c r="I197" t="n">
         <v>9.88862143729868e-06</v>
@@ -10689,7 +10689,7 @@
         <v>25</v>
       </c>
       <c r="N197" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198">
@@ -10713,16 +10713,16 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>67591544.83938967</v>
+        <v>67591544.8393897</v>
       </c>
       <c r="G198" t="n">
         <v>248</v>
       </c>
       <c r="H198" t="n">
-        <v>0.05490899085998535</v>
+        <v>0.0600614547729492</v>
       </c>
       <c r="I198" t="n">
-        <v>9.760965580334076e-06</v>
+        <v>9.760965580334079e-06</v>
       </c>
       <c r="J198" t="n">
         <v>1083</v>
@@ -10741,7 +10741,7 @@
         <v>25</v>
       </c>
       <c r="N198" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
@@ -10765,13 +10765,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>67034743.44721092</v>
+        <v>67034743.4472109</v>
       </c>
       <c r="G199" t="n">
         <v>103</v>
       </c>
       <c r="H199" t="n">
-        <v>0.03187108039855957</v>
+        <v>0.0370378494262695</v>
       </c>
       <c r="I199" t="n">
         <v>9.300384861078971e-06</v>
@@ -10793,7 +10793,7 @@
         <v>25</v>
       </c>
       <c r="N199" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -10817,13 +10817,13 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>5.783741344069723</v>
+        <v>5.78374134406972</v>
       </c>
       <c r="G200" t="n">
         <v>152</v>
       </c>
       <c r="H200" t="n">
-        <v>0.07911539077758789</v>
+        <v>0.0822336673736572</v>
       </c>
       <c r="I200" t="n">
         <v>9.889266292128169e-06</v>
@@ -10842,10 +10842,10 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>5.765054880341849</v>
+        <v>5.76505488034185</v>
       </c>
       <c r="G201" t="n">
         <v>57</v>
       </c>
       <c r="H201" t="n">
-        <v>0.02867531776428223</v>
+        <v>0.0300130844116211</v>
       </c>
       <c r="I201" t="n">
-        <v>9.119336362863703e-06</v>
+        <v>9.1193363628637e-06</v>
       </c>
       <c r="J201" t="n">
         <v>1624</v>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -10921,16 +10921,16 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>5.784813362909117</v>
+        <v>5.78481336290912</v>
       </c>
       <c r="G202" t="n">
         <v>178</v>
       </c>
       <c r="H202" t="n">
-        <v>0.1208493709564209</v>
+        <v>0.12128758430481</v>
       </c>
       <c r="I202" t="n">
-        <v>9.923291716997905e-06</v>
+        <v>9.92329171699791e-06</v>
       </c>
       <c r="J202" t="n">
         <v>1624</v>
@@ -10949,7 +10949,7 @@
         <v>25</v>
       </c>
       <c r="N202" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
@@ -10973,16 +10973,16 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>5.764640140615617</v>
+        <v>5.76464014061562</v>
       </c>
       <c r="G203" t="n">
         <v>56</v>
       </c>
       <c r="H203" t="n">
-        <v>0.0387570858001709</v>
+        <v>0.0413641929626465</v>
       </c>
       <c r="I203" t="n">
-        <v>9.724882246501546e-06</v>
+        <v>9.724882246501549e-06</v>
       </c>
       <c r="J203" t="n">
         <v>1624</v>
@@ -11001,7 +11001,7 @@
         <v>25</v>
       </c>
       <c r="N203" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -11025,16 +11025,16 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>5.784813362909117</v>
+        <v>5.78481336290912</v>
       </c>
       <c r="G204" t="n">
         <v>178</v>
       </c>
       <c r="H204" t="n">
-        <v>0.1227591037750244</v>
+        <v>0.123136520385742</v>
       </c>
       <c r="I204" t="n">
-        <v>9.926555347079957e-06</v>
+        <v>9.926555347079961e-06</v>
       </c>
       <c r="J204" t="n">
         <v>1624</v>
@@ -11053,7 +11053,7 @@
         <v>25</v>
       </c>
       <c r="N204" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -11083,10 +11083,10 @@
         <v>63</v>
       </c>
       <c r="H205" t="n">
-        <v>0.04270148277282715</v>
+        <v>0.0694749355316162</v>
       </c>
       <c r="I205" t="n">
-        <v>9.372976839571947e-06</v>
+        <v>9.37297683957195e-06</v>
       </c>
       <c r="J205" t="n">
         <v>1624</v>
@@ -11105,7 +11105,7 @@
         <v>25</v>
       </c>
       <c r="N205" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
@@ -11129,13 +11129,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>3112885321254.005</v>
+        <v>3112885321254</v>
       </c>
       <c r="G206" t="n">
         <v>176</v>
       </c>
       <c r="H206" t="n">
-        <v>0.2150137424468994</v>
+        <v>0.149252891540527</v>
       </c>
       <c r="I206" t="n">
         <v>9.93062770802346e-06</v>
@@ -11154,10 +11154,10 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -11181,16 +11181,16 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3110907462318.414</v>
+        <v>3110907462318.41</v>
       </c>
       <c r="G207" t="n">
         <v>130</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1799979209899902</v>
+        <v>0.111595869064331</v>
       </c>
       <c r="I207" t="n">
-        <v>9.719535900029396e-06</v>
+        <v>9.7195359000294e-06</v>
       </c>
       <c r="J207" t="n">
         <v>2003</v>
@@ -11206,10 +11206,10 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -11233,16 +11233,16 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>3103380525597.122</v>
+        <v>3103380525597.12</v>
       </c>
       <c r="G208" t="n">
         <v>44</v>
       </c>
       <c r="H208" t="n">
-        <v>0.05808115005493164</v>
+        <v>0.0431442260742188</v>
       </c>
       <c r="I208" t="n">
-        <v>9.001657581646491e-06</v>
+        <v>9.001657581646489e-06</v>
       </c>
       <c r="J208" t="n">
         <v>2003</v>
@@ -11261,7 +11261,7 @@
         <v>25</v>
       </c>
       <c r="N208" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
@@ -11285,16 +11285,16 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>3102930484188.792</v>
+        <v>3102930484188.79</v>
       </c>
       <c r="G209" t="n">
         <v>40</v>
       </c>
       <c r="H209" t="n">
-        <v>0.05438661575317383</v>
+        <v>0.0474090576171875</v>
       </c>
       <c r="I209" t="n">
-        <v>3.754046861759833e-06</v>
+        <v>3.75404686175983e-06</v>
       </c>
       <c r="J209" t="n">
         <v>2003</v>
@@ -11313,7 +11313,7 @@
         <v>25</v>
       </c>
       <c r="N209" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
@@ -11337,16 +11337,16 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3103380525597.122</v>
+        <v>3103380525597.12</v>
       </c>
       <c r="G210" t="n">
         <v>44</v>
       </c>
       <c r="H210" t="n">
-        <v>0.05314278602600098</v>
+        <v>0.064704179763794</v>
       </c>
       <c r="I210" t="n">
-        <v>9.087110654495383e-06</v>
+        <v>9.087110654495379e-06</v>
       </c>
       <c r="J210" t="n">
         <v>2003</v>
@@ -11365,7 +11365,7 @@
         <v>25</v>
       </c>
       <c r="N210" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
@@ -11389,16 +11389,16 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>3103380525597.122</v>
+        <v>3103380525597.12</v>
       </c>
       <c r="G211" t="n">
         <v>44</v>
       </c>
       <c r="H211" t="n">
-        <v>0.0573272705078125</v>
+        <v>0.0742871761322022</v>
       </c>
       <c r="I211" t="n">
-        <v>7.236279599240849e-06</v>
+        <v>7.23627959924085e-06</v>
       </c>
       <c r="J211" t="n">
         <v>2003</v>
@@ -11417,7 +11417,7 @@
         <v>25</v>
       </c>
       <c r="N211" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
@@ -11441,16 +11441,16 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>39536719.78976859</v>
+        <v>39536719.7897686</v>
       </c>
       <c r="G212" t="n">
         <v>130</v>
       </c>
       <c r="H212" t="n">
-        <v>0.01261448860168457</v>
+        <v>0.0284538269042969</v>
       </c>
       <c r="I212" t="n">
-        <v>9.577905122535048e-06</v>
+        <v>9.57790512253505e-06</v>
       </c>
       <c r="J212" t="n">
         <v>817</v>
@@ -11466,10 +11466,10 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -11493,16 +11493,16 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>39491518.38471355</v>
+        <v>39491518.3847136</v>
       </c>
       <c r="G213" t="n">
         <v>87</v>
       </c>
       <c r="H213" t="n">
-        <v>0.008158445358276367</v>
+        <v>0.009771823883056641</v>
       </c>
       <c r="I213" t="n">
-        <v>9.757291252869126e-06</v>
+        <v>9.757291252869129e-06</v>
       </c>
       <c r="J213" t="n">
         <v>817</v>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -11545,16 +11545,16 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>39182996.41874214</v>
+        <v>39182996.4187421</v>
       </c>
       <c r="G214" t="n">
         <v>33</v>
       </c>
       <c r="H214" t="n">
-        <v>0.003671884536743164</v>
+        <v>0.0066530704498291</v>
       </c>
       <c r="I214" t="n">
-        <v>2.127172838802848e-06</v>
+        <v>2.12717283880285e-06</v>
       </c>
       <c r="J214" t="n">
         <v>817</v>
@@ -11573,7 +11573,7 @@
         <v>25</v>
       </c>
       <c r="N214" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
@@ -11597,16 +11597,16 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>39384502.46947625</v>
+        <v>39384502.4694763</v>
       </c>
       <c r="G215" t="n">
         <v>59</v>
       </c>
       <c r="H215" t="n">
-        <v>0.01489090919494629</v>
+        <v>0.013045072555542</v>
       </c>
       <c r="I215" t="n">
-        <v>7.457970333334555e-06</v>
+        <v>7.45797033333456e-06</v>
       </c>
       <c r="J215" t="n">
         <v>817</v>
@@ -11625,7 +11625,7 @@
         <v>25</v>
       </c>
       <c r="N215" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216">
@@ -11649,16 +11649,16 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>39182996.41874214</v>
+        <v>39182996.4187421</v>
       </c>
       <c r="G216" t="n">
         <v>33</v>
       </c>
       <c r="H216" t="n">
-        <v>0.005482912063598633</v>
+        <v>0.00662994384765625</v>
       </c>
       <c r="I216" t="n">
-        <v>1.296163124124308e-06</v>
+        <v>1.29616312412431e-06</v>
       </c>
       <c r="J216" t="n">
         <v>817</v>
@@ -11677,7 +11677,7 @@
         <v>25</v>
       </c>
       <c r="N216" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217">
@@ -11701,16 +11701,16 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>39182996.41874214</v>
+        <v>39182996.4187421</v>
       </c>
       <c r="G217" t="n">
         <v>33</v>
       </c>
       <c r="H217" t="n">
-        <v>0.008513689041137695</v>
+        <v>0.009378671646118161</v>
       </c>
       <c r="I217" t="n">
-        <v>7.934456821361933e-06</v>
+        <v>7.93445682136193e-06</v>
       </c>
       <c r="J217" t="n">
         <v>817</v>
@@ -11729,7 +11729,7 @@
         <v>25</v>
       </c>
       <c r="N217" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>5.177624323644659</v>
+        <v>5.17762432364466</v>
       </c>
       <c r="G218" t="n">
         <v>81</v>
       </c>
       <c r="H218" t="n">
-        <v>0.003685235977172852</v>
+        <v>0.00239348411560059</v>
       </c>
       <c r="I218" t="n">
         <v>9.73215531173906e-06</v>
@@ -11778,10 +11778,10 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>5.158442555151209</v>
+        <v>5.15844255515121</v>
       </c>
       <c r="G219" t="n">
         <v>34</v>
       </c>
       <c r="H219" t="n">
-        <v>0.001804113388061523</v>
+        <v>0.00111842155456543</v>
       </c>
       <c r="I219" t="n">
-        <v>4.081601348667869e-06</v>
+        <v>4.08160134866787e-06</v>
       </c>
       <c r="J219" t="n">
         <v>443</v>
@@ -11830,10 +11830,10 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -11857,16 +11857,16 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>5.178255652301406</v>
+        <v>5.17825565230141</v>
       </c>
       <c r="G220" t="n">
         <v>125</v>
       </c>
       <c r="H220" t="n">
-        <v>0.021240234375</v>
+        <v>0.0148828029632568</v>
       </c>
       <c r="I220" t="n">
-        <v>9.803226391794992e-06</v>
+        <v>9.803226391794991e-06</v>
       </c>
       <c r="J220" t="n">
         <v>443</v>
@@ -11885,7 +11885,7 @@
         <v>35</v>
       </c>
       <c r="N220" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
@@ -11915,10 +11915,10 @@
         <v>123</v>
       </c>
       <c r="H221" t="n">
-        <v>0.02039670944213867</v>
+        <v>0.0112557411193848</v>
       </c>
       <c r="I221" t="n">
-        <v>9.894956779226593e-06</v>
+        <v>9.89495677922659e-06</v>
       </c>
       <c r="J221" t="n">
         <v>443</v>
@@ -11937,7 +11937,7 @@
         <v>35</v>
       </c>
       <c r="N221" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
@@ -11961,16 +11961,16 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>5.178255652301406</v>
+        <v>5.17825565230141</v>
       </c>
       <c r="G222" t="n">
         <v>125</v>
       </c>
       <c r="H222" t="n">
-        <v>0.01241445541381836</v>
+        <v>0.0149567127227783</v>
       </c>
       <c r="I222" t="n">
-        <v>9.803645573316399e-06</v>
+        <v>9.8036455733164e-06</v>
       </c>
       <c r="J222" t="n">
         <v>443</v>
@@ -11989,7 +11989,7 @@
         <v>35</v>
       </c>
       <c r="N222" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -12013,16 +12013,16 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>5.178198327980033</v>
+        <v>5.17819832798003</v>
       </c>
       <c r="G223" t="n">
         <v>109</v>
       </c>
       <c r="H223" t="n">
-        <v>0.01959109306335449</v>
+        <v>0.0188729763031006</v>
       </c>
       <c r="I223" t="n">
-        <v>9.326686620500775e-06</v>
+        <v>9.32668662050078e-06</v>
       </c>
       <c r="J223" t="n">
         <v>443</v>
@@ -12041,7 +12041,7 @@
         <v>35</v>
       </c>
       <c r="N223" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
@@ -12065,16 +12065,16 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>8.235967774192392</v>
+        <v>8.235967774192391</v>
       </c>
       <c r="G224" t="n">
         <v>82</v>
       </c>
       <c r="H224" t="n">
-        <v>0.002035856246948242</v>
+        <v>0.00130724906921387</v>
       </c>
       <c r="I224" t="n">
-        <v>9.610906841174262e-06</v>
+        <v>9.61090684117426e-06</v>
       </c>
       <c r="J224" t="n">
         <v>198</v>
@@ -12090,10 +12090,10 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -12123,7 +12123,7 @@
         <v>20</v>
       </c>
       <c r="H225" t="n">
-        <v>0.0004541873931884766</v>
+        <v>0.000327825546264648</v>
       </c>
       <c r="I225" t="n">
         <v>6.14552676886002e-06</v>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -12169,16 +12169,16 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>8.237826831666238</v>
+        <v>8.23782683166624</v>
       </c>
       <c r="G226" t="n">
         <v>122</v>
       </c>
       <c r="H226" t="n">
-        <v>0.008787631988525391</v>
+        <v>0.0100829601287842</v>
       </c>
       <c r="I226" t="n">
-        <v>9.607283998505276e-06</v>
+        <v>9.60728399850528e-06</v>
       </c>
       <c r="J226" t="n">
         <v>198</v>
@@ -12197,7 +12197,7 @@
         <v>35</v>
       </c>
       <c r="N226" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -12221,16 +12221,16 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>8.237526200562943</v>
+        <v>8.237526200562939</v>
       </c>
       <c r="G227" t="n">
         <v>113</v>
       </c>
       <c r="H227" t="n">
-        <v>0.007681846618652344</v>
+        <v>0.009076356887817379</v>
       </c>
       <c r="I227" t="n">
-        <v>9.489989660422743e-06</v>
+        <v>9.48998966042274e-06</v>
       </c>
       <c r="J227" t="n">
         <v>198</v>
@@ -12249,7 +12249,7 @@
         <v>35</v>
       </c>
       <c r="N227" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
@@ -12273,16 +12273,16 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>8.237826831666238</v>
+        <v>8.23782683166624</v>
       </c>
       <c r="G228" t="n">
         <v>122</v>
       </c>
       <c r="H228" t="n">
-        <v>0.007225751876831055</v>
+        <v>0.00847506523132324</v>
       </c>
       <c r="I228" t="n">
-        <v>9.610628602851537e-06</v>
+        <v>9.61062860285154e-06</v>
       </c>
       <c r="J228" t="n">
         <v>198</v>
@@ -12301,7 +12301,7 @@
         <v>35</v>
       </c>
       <c r="N228" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229">
@@ -12325,16 +12325,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>8.237013303937953</v>
+        <v>8.23701330393795</v>
       </c>
       <c r="G229" t="n">
         <v>100</v>
       </c>
       <c r="H229" t="n">
-        <v>0.01332688331604004</v>
+        <v>0.0162596702575684</v>
       </c>
       <c r="I229" t="n">
-        <v>9.334692941721485e-06</v>
+        <v>9.33469294172149e-06</v>
       </c>
       <c r="J229" t="n">
         <v>198</v>
@@ -12353,7 +12353,7 @@
         <v>35</v>
       </c>
       <c r="N229" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230">
@@ -12377,16 +12377,16 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>5.664183085589989</v>
+        <v>5.66418308558999</v>
       </c>
       <c r="G230" t="n">
         <v>99</v>
       </c>
       <c r="H230" t="n">
-        <v>0.05153012275695801</v>
+        <v>0.0508372783660889</v>
       </c>
       <c r="I230" t="n">
-        <v>9.887257321542167e-06</v>
+        <v>9.88725732154217e-06</v>
       </c>
       <c r="J230" t="n">
         <v>1612</v>
@@ -12402,10 +12402,10 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -12429,16 +12429,16 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>5.644495706012883</v>
+        <v>5.64449570601288</v>
       </c>
       <c r="G231" t="n">
         <v>42</v>
       </c>
       <c r="H231" t="n">
-        <v>0.02184629440307617</v>
+        <v>0.0207705497741699</v>
       </c>
       <c r="I231" t="n">
-        <v>1.125279261864306e-07</v>
+        <v>1.12527926186431e-07</v>
       </c>
       <c r="J231" t="n">
         <v>1612</v>
@@ -12454,10 +12454,10 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -12481,13 +12481,13 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>5.665099754277608</v>
+        <v>5.66509975427761</v>
       </c>
       <c r="G232" t="n">
         <v>147</v>
       </c>
       <c r="H232" t="n">
-        <v>0.1237862110137939</v>
+        <v>0.0912928581237793</v>
       </c>
       <c r="I232" t="n">
         <v>9.887502785704809e-06</v>
@@ -12509,7 +12509,7 @@
         <v>35</v>
       </c>
       <c r="N232" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
@@ -12533,16 +12533,16 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>5.665091687321838</v>
+        <v>5.66509168732184</v>
       </c>
       <c r="G233" t="n">
         <v>145</v>
       </c>
       <c r="H233" t="n">
-        <v>0.1251513957977295</v>
+        <v>0.09419846534729009</v>
       </c>
       <c r="I233" t="n">
-        <v>9.474964938931121e-06</v>
+        <v>9.474964938931119e-06</v>
       </c>
       <c r="J233" t="n">
         <v>1612</v>
@@ -12561,7 +12561,7 @@
         <v>35</v>
       </c>
       <c r="N233" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234">
@@ -12585,16 +12585,16 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>5.665099754277608</v>
+        <v>5.66509975427761</v>
       </c>
       <c r="G234" t="n">
         <v>147</v>
       </c>
       <c r="H234" t="n">
-        <v>0.1055457592010498</v>
+        <v>0.123284339904785</v>
       </c>
       <c r="I234" t="n">
-        <v>9.888103471473047e-06</v>
+        <v>9.888103471473051e-06</v>
       </c>
       <c r="J234" t="n">
         <v>1612</v>
@@ -12613,7 +12613,7 @@
         <v>35</v>
       </c>
       <c r="N234" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235">
@@ -12637,16 +12637,16 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>5.664843200983845</v>
+        <v>5.66484320098385</v>
       </c>
       <c r="G235" t="n">
         <v>119</v>
       </c>
       <c r="H235" t="n">
-        <v>0.1085531711578369</v>
+        <v>0.0933594703674316</v>
       </c>
       <c r="I235" t="n">
-        <v>9.881467622619838e-06</v>
+        <v>9.88146762261984e-06</v>
       </c>
       <c r="J235" t="n">
         <v>1612</v>
@@ -12665,7 +12665,7 @@
         <v>35</v>
       </c>
       <c r="N235" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -12689,16 +12689,16 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>13.85636022094015</v>
+        <v>13.8563602209402</v>
       </c>
       <c r="G236" t="n">
         <v>74</v>
       </c>
       <c r="H236" t="n">
-        <v>0.003354310989379883</v>
+        <v>0.00273251533508301</v>
       </c>
       <c r="I236" t="n">
-        <v>9.868273052810091e-06</v>
+        <v>9.86827305281009e-06</v>
       </c>
       <c r="J236" t="n">
         <v>634</v>
@@ -12714,10 +12714,10 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>13.85335522354526</v>
+        <v>13.8533552235453</v>
       </c>
       <c r="G237" t="n">
         <v>56</v>
       </c>
       <c r="H237" t="n">
-        <v>0.001955270767211914</v>
+        <v>0.00212764739990234</v>
       </c>
       <c r="I237" t="n">
-        <v>9.058097463115668e-06</v>
+        <v>9.058097463115669e-06</v>
       </c>
       <c r="J237" t="n">
         <v>634</v>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -12793,16 +12793,16 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>13.86062726749888</v>
+        <v>13.8606272674989</v>
       </c>
       <c r="G238" t="n">
         <v>130</v>
       </c>
       <c r="H238" t="n">
-        <v>0.01319694519042969</v>
+        <v>0.0141177177429199</v>
       </c>
       <c r="I238" t="n">
-        <v>9.809349301402978e-06</v>
+        <v>9.80934930140298e-06</v>
       </c>
       <c r="J238" t="n">
         <v>634</v>
@@ -12821,7 +12821,7 @@
         <v>35</v>
       </c>
       <c r="N238" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
@@ -12845,16 +12845,16 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>13.85699945835141</v>
+        <v>13.8569994583514</v>
       </c>
       <c r="G239" t="n">
         <v>79</v>
       </c>
       <c r="H239" t="n">
-        <v>0.006838798522949219</v>
+        <v>0.00806713104248047</v>
       </c>
       <c r="I239" t="n">
-        <v>9.949422996672968e-06</v>
+        <v>9.949422996672969e-06</v>
       </c>
       <c r="J239" t="n">
         <v>634</v>
@@ -12873,7 +12873,7 @@
         <v>35</v>
       </c>
       <c r="N239" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
@@ -12897,16 +12897,16 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>13.86062726749888</v>
+        <v>13.8606272674989</v>
       </c>
       <c r="G240" t="n">
         <v>130</v>
       </c>
       <c r="H240" t="n">
-        <v>0.01118755340576172</v>
+        <v>0.0123405456542969</v>
       </c>
       <c r="I240" t="n">
-        <v>9.811539876728348e-06</v>
+        <v>9.811539876728349e-06</v>
       </c>
       <c r="J240" t="n">
         <v>634</v>
@@ -12925,7 +12925,7 @@
         <v>35</v>
       </c>
       <c r="N240" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241">
@@ -12949,16 +12949,16 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>13.85579426951633</v>
+        <v>13.8557942695163</v>
       </c>
       <c r="G241" t="n">
         <v>70</v>
       </c>
       <c r="H241" t="n">
-        <v>0.009563922882080078</v>
+        <v>0.0132596492767334</v>
       </c>
       <c r="I241" t="n">
-        <v>8.825668851401775e-06</v>
+        <v>8.82566885140177e-06</v>
       </c>
       <c r="J241" t="n">
         <v>634</v>
@@ -12977,7 +12977,7 @@
         <v>35</v>
       </c>
       <c r="N241" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
@@ -13001,16 +13001,16 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>5.618009280534263</v>
+        <v>5.61800928053426</v>
       </c>
       <c r="G242" t="n">
         <v>124</v>
       </c>
       <c r="H242" t="n">
-        <v>0.04483151435852051</v>
+        <v>0.0475220680236816</v>
       </c>
       <c r="I242" t="n">
-        <v>9.976989305980093e-06</v>
+        <v>9.976989305980091e-06</v>
       </c>
       <c r="J242" t="n">
         <v>1454</v>
@@ -13026,10 +13026,10 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -13059,10 +13059,10 @@
         <v>49</v>
       </c>
       <c r="H243" t="n">
-        <v>0.01712250709533691</v>
+        <v>0.0199344158172607</v>
       </c>
       <c r="I243" t="n">
-        <v>3.579918195761039e-06</v>
+        <v>3.57991819576104e-06</v>
       </c>
       <c r="J243" t="n">
         <v>1454</v>
@@ -13078,10 +13078,10 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -13105,13 +13105,13 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>5.619288083838046</v>
+        <v>5.61928808383805</v>
       </c>
       <c r="G244" t="n">
         <v>177</v>
       </c>
       <c r="H244" t="n">
-        <v>0.08612728118896484</v>
+        <v>0.0889875888824463</v>
       </c>
       <c r="I244" t="n">
         <v>9.984935826135231e-06</v>
@@ -13133,7 +13133,7 @@
         <v>35</v>
       </c>
       <c r="N244" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -13157,16 +13157,16 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>5.619245889754283</v>
+        <v>5.61924588975428</v>
       </c>
       <c r="G245" t="n">
         <v>172</v>
       </c>
       <c r="H245" t="n">
-        <v>0.07972860336303711</v>
+        <v>0.0885269641876221</v>
       </c>
       <c r="I245" t="n">
-        <v>9.931820970150687e-06</v>
+        <v>9.931820970150691e-06</v>
       </c>
       <c r="J245" t="n">
         <v>1454</v>
@@ -13185,7 +13185,7 @@
         <v>35</v>
       </c>
       <c r="N245" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
@@ -13209,16 +13209,16 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>5.619288083838046</v>
+        <v>5.61928808383805</v>
       </c>
       <c r="G246" t="n">
         <v>177</v>
       </c>
       <c r="H246" t="n">
-        <v>0.07947087287902832</v>
+        <v>0.140035390853882</v>
       </c>
       <c r="I246" t="n">
-        <v>9.986005224568308e-06</v>
+        <v>9.98600522456831e-06</v>
       </c>
       <c r="J246" t="n">
         <v>1454</v>
@@ -13237,7 +13237,7 @@
         <v>35</v>
       </c>
       <c r="N246" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
@@ -13267,10 +13267,10 @@
         <v>120</v>
       </c>
       <c r="H247" t="n">
-        <v>0.06511497497558594</v>
+        <v>0.0905320644378662</v>
       </c>
       <c r="I247" t="n">
-        <v>9.913821424187685e-06</v>
+        <v>9.91382142418768e-06</v>
       </c>
       <c r="J247" t="n">
         <v>1454</v>
@@ -13289,7 +13289,7 @@
         <v>35</v>
       </c>
       <c r="N247" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -13319,10 +13319,10 @@
         <v>134</v>
       </c>
       <c r="H248" t="n">
-        <v>0.001424074172973633</v>
+        <v>0.00227522850036621</v>
       </c>
       <c r="I248" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.8212278755997e-06</v>
       </c>
       <c r="J248" t="n">
         <v>48</v>
@@ -13338,10 +13338,10 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -13365,16 +13365,16 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>3011156754.072117</v>
+        <v>3011156754.07212</v>
       </c>
       <c r="G249" t="n">
         <v>85</v>
       </c>
       <c r="H249" t="n">
-        <v>0.0008502006530761719</v>
+        <v>0.00146055221557617</v>
       </c>
       <c r="I249" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.6768023857551e-06</v>
       </c>
       <c r="J249" t="n">
         <v>48</v>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -13417,16 +13417,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>3014982937.078365</v>
+        <v>3014982937.07836</v>
       </c>
       <c r="G250" t="n">
         <v>189</v>
       </c>
       <c r="H250" t="n">
-        <v>0.01164770126342773</v>
+        <v>0.0199964046478272</v>
       </c>
       <c r="I250" t="n">
-        <v>9.863235151366143e-06</v>
+        <v>9.863235151366139e-06</v>
       </c>
       <c r="J250" t="n">
         <v>48</v>
@@ -13445,7 +13445,7 @@
         <v>35</v>
       </c>
       <c r="N250" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
@@ -13469,13 +13469,13 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>3009027503.375407</v>
+        <v>3009027503.37541</v>
       </c>
       <c r="G251" t="n">
         <v>69</v>
       </c>
       <c r="H251" t="n">
-        <v>0.003694057464599609</v>
+        <v>0.00433850288391113</v>
       </c>
       <c r="I251" t="n">
         <v>8.841276447773521e-06</v>
@@ -13497,7 +13497,7 @@
         <v>35</v>
       </c>
       <c r="N251" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -13521,16 +13521,16 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>3014982937.078365</v>
+        <v>3014982937.07836</v>
       </c>
       <c r="G252" t="n">
         <v>189</v>
       </c>
       <c r="H252" t="n">
-        <v>0.01484847068786621</v>
+        <v>0.010847806930542</v>
       </c>
       <c r="I252" t="n">
-        <v>9.864745004857224e-06</v>
+        <v>9.864745004857219e-06</v>
       </c>
       <c r="J252" t="n">
         <v>48</v>
@@ -13549,7 +13549,7 @@
         <v>35</v>
       </c>
       <c r="N252" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
@@ -13573,16 +13573,16 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>3004887357.898833</v>
+        <v>3004887357.89883</v>
       </c>
       <c r="G253" t="n">
         <v>48</v>
       </c>
       <c r="H253" t="n">
-        <v>0.002749204635620117</v>
+        <v>0.00625777244567871</v>
       </c>
       <c r="I253" t="n">
-        <v>2.351591282083888e-06</v>
+        <v>2.35159128208389e-06</v>
       </c>
       <c r="J253" t="n">
         <v>48</v>
@@ -13601,7 +13601,7 @@
         <v>35</v>
       </c>
       <c r="N253" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
@@ -13625,16 +13625,16 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>2.366980478285793</v>
+        <v>2.36698047828579</v>
       </c>
       <c r="G254" t="n">
         <v>113</v>
       </c>
       <c r="H254" t="n">
-        <v>0.001727581024169922</v>
+        <v>0.00151276588439941</v>
       </c>
       <c r="I254" t="n">
-        <v>9.718522766616134e-06</v>
+        <v>9.718522766616129e-06</v>
       </c>
       <c r="J254" t="n">
         <v>130</v>
@@ -13650,10 +13650,10 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N254" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2.341827745527051</v>
+        <v>2.34182774552705</v>
       </c>
       <c r="G255" t="n">
         <v>39</v>
       </c>
       <c r="H255" t="n">
-        <v>0.0005991458892822266</v>
+        <v>0.000679969787597656</v>
       </c>
       <c r="I255" t="n">
-        <v>6.624151165445741e-06</v>
+        <v>6.62415116544574e-06</v>
       </c>
       <c r="J255" t="n">
         <v>130</v>
@@ -13702,10 +13702,10 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -13729,16 +13729,16 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2.367339380647385</v>
+        <v>2.36733938064738</v>
       </c>
       <c r="G256" t="n">
         <v>160</v>
       </c>
       <c r="H256" t="n">
-        <v>0.01283669471740723</v>
+        <v>0.0130956172943115</v>
       </c>
       <c r="I256" t="n">
-        <v>9.832768620856262e-06</v>
+        <v>9.832768620856261e-06</v>
       </c>
       <c r="J256" t="n">
         <v>130</v>
@@ -13757,7 +13757,7 @@
         <v>35</v>
       </c>
       <c r="N256" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -13781,16 +13781,16 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2.367336282331764</v>
+        <v>2.36733628233176</v>
       </c>
       <c r="G257" t="n">
         <v>158</v>
       </c>
       <c r="H257" t="n">
-        <v>0.01096653938293457</v>
+        <v>0.0122947692871094</v>
       </c>
       <c r="I257" t="n">
-        <v>9.679225273720061e-06</v>
+        <v>9.679225273720059e-06</v>
       </c>
       <c r="J257" t="n">
         <v>130</v>
@@ -13809,7 +13809,7 @@
         <v>35</v>
       </c>
       <c r="N257" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -13833,16 +13833,16 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>2.367339380647385</v>
+        <v>2.36733938064738</v>
       </c>
       <c r="G258" t="n">
         <v>160</v>
       </c>
       <c r="H258" t="n">
-        <v>0.009621381759643555</v>
+        <v>0.0110852718353272</v>
       </c>
       <c r="I258" t="n">
-        <v>9.833331887792131e-06</v>
+        <v>9.83333188779213e-06</v>
       </c>
       <c r="J258" t="n">
         <v>130</v>
@@ -13861,7 +13861,7 @@
         <v>35</v>
       </c>
       <c r="N258" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
@@ -13885,16 +13885,16 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2.367257433939435</v>
+        <v>2.36725743393943</v>
       </c>
       <c r="G259" t="n">
         <v>135</v>
       </c>
       <c r="H259" t="n">
-        <v>0.01841521263122559</v>
+        <v>0.0216522216796875</v>
       </c>
       <c r="I259" t="n">
-        <v>9.757532442925217e-06</v>
+        <v>9.757532442925221e-06</v>
       </c>
       <c r="J259" t="n">
         <v>130</v>
@@ -13913,7 +13913,7 @@
         <v>35</v>
       </c>
       <c r="N259" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260">
@@ -13937,16 +13937,16 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>127119840.5799289</v>
+        <v>127119840.579929</v>
       </c>
       <c r="G260" t="n">
         <v>335</v>
       </c>
       <c r="H260" t="n">
-        <v>1.21345853805542</v>
+        <v>1.43825507164002</v>
       </c>
       <c r="I260" t="n">
-        <v>9.950853270590775e-06</v>
+        <v>9.95085327059078e-06</v>
       </c>
       <c r="J260" t="n">
         <v>3600</v>
@@ -13962,10 +13962,10 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -13989,16 +13989,16 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>126665889.0410609</v>
+        <v>126665889.041061</v>
       </c>
       <c r="G261" t="n">
         <v>185</v>
       </c>
       <c r="H261" t="n">
-        <v>0.7716705799102783</v>
+        <v>0.685745477676392</v>
       </c>
       <c r="I261" t="n">
-        <v>9.959440811812839e-06</v>
+        <v>9.959440811812841e-06</v>
       </c>
       <c r="J261" t="n">
         <v>3600</v>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -14041,16 +14041,16 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>127139655.5646965</v>
+        <v>127139655.564697</v>
       </c>
       <c r="G262" t="n">
         <v>352</v>
       </c>
       <c r="H262" t="n">
-        <v>1.982486486434937</v>
+        <v>1.53304266929627</v>
       </c>
       <c r="I262" t="n">
-        <v>9.952993643310963e-06</v>
+        <v>9.95299364331096e-06</v>
       </c>
       <c r="J262" t="n">
         <v>3600</v>
@@ -14069,7 +14069,7 @@
         <v>35</v>
       </c>
       <c r="N262" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
@@ -14099,10 +14099,10 @@
         <v>318</v>
       </c>
       <c r="H263" t="n">
-        <v>1.686631917953491</v>
+        <v>1.20446014404297</v>
       </c>
       <c r="I263" t="n">
-        <v>9.975009547597757e-06</v>
+        <v>9.975009547597761e-06</v>
       </c>
       <c r="J263" t="n">
         <v>3600</v>
@@ -14121,7 +14121,7 @@
         <v>35</v>
       </c>
       <c r="N263" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
@@ -14145,16 +14145,16 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>127139655.5646965</v>
+        <v>127139655.564697</v>
       </c>
       <c r="G264" t="n">
         <v>352</v>
       </c>
       <c r="H264" t="n">
-        <v>1.960785388946533</v>
+        <v>1.40364146232605</v>
       </c>
       <c r="I264" t="n">
-        <v>9.964842227710117e-06</v>
+        <v>9.96484222771012e-06</v>
       </c>
       <c r="J264" t="n">
         <v>3600</v>
@@ -14173,7 +14173,7 @@
         <v>35</v>
       </c>
       <c r="N264" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
@@ -14197,16 +14197,16 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>126492209.2254479</v>
+        <v>126492209.225448</v>
       </c>
       <c r="G265" t="n">
         <v>161</v>
       </c>
       <c r="H265" t="n">
-        <v>0.8009147644042969</v>
+        <v>0.685409307479858</v>
       </c>
       <c r="I265" t="n">
-        <v>9.951487378955567e-06</v>
+        <v>9.95148737895557e-06</v>
       </c>
       <c r="J265" t="n">
         <v>3600</v>
@@ -14225,7 +14225,7 @@
         <v>35</v>
       </c>
       <c r="N265" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
@@ -14249,16 +14249,16 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>67579067.21497774</v>
+        <v>67579067.2149777</v>
       </c>
       <c r="G266" t="n">
         <v>220</v>
       </c>
       <c r="H266" t="n">
-        <v>0.06513690948486328</v>
+        <v>0.0383203029632568</v>
       </c>
       <c r="I266" t="n">
-        <v>9.756365027126536e-06</v>
+        <v>9.75636502712654e-06</v>
       </c>
       <c r="J266" t="n">
         <v>1083</v>
@@ -14274,10 +14274,10 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N266" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -14301,16 +14301,16 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>66842601.59795048</v>
+        <v>66842601.5979505</v>
       </c>
       <c r="G267" t="n">
         <v>90</v>
       </c>
       <c r="H267" t="n">
-        <v>0.03298139572143555</v>
+        <v>0.0167646408081055</v>
       </c>
       <c r="I267" t="n">
-        <v>8.224602928185185e-06</v>
+        <v>8.22460292818519e-06</v>
       </c>
       <c r="J267" t="n">
         <v>1083</v>
@@ -14326,10 +14326,10 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -14359,10 +14359,10 @@
         <v>274</v>
       </c>
       <c r="H268" t="n">
-        <v>0.1316113471984863</v>
+        <v>0.07479333877563479</v>
       </c>
       <c r="I268" t="n">
-        <v>9.750047581471613e-06</v>
+        <v>9.75004758147161e-06</v>
       </c>
       <c r="J268" t="n">
         <v>1083</v>
@@ -14381,7 +14381,7 @@
         <v>35</v>
       </c>
       <c r="N268" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
@@ -14405,13 +14405,13 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>67595990.80070652</v>
+        <v>67595990.80070651</v>
       </c>
       <c r="G269" t="n">
         <v>268</v>
       </c>
       <c r="H269" t="n">
-        <v>0.1417703628540039</v>
+        <v>0.07403564453125</v>
       </c>
       <c r="I269" t="n">
         <v>9.992622072621971e-06</v>
@@ -14433,7 +14433,7 @@
         <v>35</v>
       </c>
       <c r="N269" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270">
@@ -14463,7 +14463,7 @@
         <v>274</v>
       </c>
       <c r="H270" t="n">
-        <v>0.1343553066253662</v>
+        <v>0.0641918182373047</v>
       </c>
       <c r="I270" t="n">
         <v>9.75166700097071e-06</v>
@@ -14485,7 +14485,7 @@
         <v>35</v>
       </c>
       <c r="N270" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
@@ -14509,13 +14509,13 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>67555196.02803041</v>
+        <v>67555196.0280304</v>
       </c>
       <c r="G271" t="n">
         <v>195</v>
       </c>
       <c r="H271" t="n">
-        <v>0.1338284015655518</v>
+        <v>0.0718493461608887</v>
       </c>
       <c r="I271" t="n">
         <v>9.81554311768831e-06</v>
@@ -14537,7 +14537,7 @@
         <v>35</v>
       </c>
       <c r="N271" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
@@ -14561,13 +14561,13 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>5.783741344069723</v>
+        <v>5.78374134406972</v>
       </c>
       <c r="G272" t="n">
         <v>152</v>
       </c>
       <c r="H272" t="n">
-        <v>0.1564774513244629</v>
+        <v>0.08766698837280271</v>
       </c>
       <c r="I272" t="n">
         <v>9.889266292128169e-06</v>
@@ -14586,10 +14586,10 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N272" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>5.765054880341849</v>
+        <v>5.76505488034185</v>
       </c>
       <c r="G273" t="n">
         <v>57</v>
       </c>
       <c r="H273" t="n">
-        <v>0.06177234649658203</v>
+        <v>0.0305569171905518</v>
       </c>
       <c r="I273" t="n">
-        <v>9.119336362863703e-06</v>
+        <v>9.1193363628637e-06</v>
       </c>
       <c r="J273" t="n">
         <v>1624</v>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -14665,13 +14665,13 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>5.785413631678655</v>
+        <v>5.78541363167866</v>
       </c>
       <c r="G274" t="n">
         <v>208</v>
       </c>
       <c r="H274" t="n">
-        <v>0.2623095512390137</v>
+        <v>0.162644147872925</v>
       </c>
       <c r="I274" t="n">
         <v>9.81482640058526e-06</v>
@@ -14693,7 +14693,7 @@
         <v>35</v>
       </c>
       <c r="N274" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
@@ -14717,16 +14717,16 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>5.767801188242149</v>
+        <v>5.76780118824215</v>
       </c>
       <c r="G275" t="n">
         <v>64</v>
       </c>
       <c r="H275" t="n">
-        <v>0.07456278800964355</v>
+        <v>0.0595614910125732</v>
       </c>
       <c r="I275" t="n">
-        <v>8.720061277784258e-06</v>
+        <v>8.72006127778426e-06</v>
       </c>
       <c r="J275" t="n">
         <v>1624</v>
@@ -14745,7 +14745,7 @@
         <v>35</v>
       </c>
       <c r="N275" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276">
@@ -14769,16 +14769,16 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.785413631678655</v>
+        <v>5.78541363167866</v>
       </c>
       <c r="G276" t="n">
         <v>208</v>
       </c>
       <c r="H276" t="n">
-        <v>0.253244161605835</v>
+        <v>0.224038124084473</v>
       </c>
       <c r="I276" t="n">
-        <v>9.816624509684786e-06</v>
+        <v>9.816624509684791e-06</v>
       </c>
       <c r="J276" t="n">
         <v>1624</v>
@@ -14797,7 +14797,7 @@
         <v>35</v>
       </c>
       <c r="N276" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277">
@@ -14821,16 +14821,16 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.771258719895522</v>
+        <v>5.77125871989552</v>
       </c>
       <c r="G277" t="n">
         <v>74</v>
       </c>
       <c r="H277" t="n">
-        <v>0.09243559837341309</v>
+        <v>0.09677720069885259</v>
       </c>
       <c r="I277" t="n">
-        <v>8.391829893545379e-06</v>
+        <v>8.391829893545381e-06</v>
       </c>
       <c r="J277" t="n">
         <v>1624</v>
@@ -14849,7 +14849,7 @@
         <v>35</v>
       </c>
       <c r="N277" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278">
@@ -14873,13 +14873,13 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>3112885321254.005</v>
+        <v>3112885321254</v>
       </c>
       <c r="G278" t="n">
         <v>176</v>
       </c>
       <c r="H278" t="n">
-        <v>0.2384011745452881</v>
+        <v>0.230355739593506</v>
       </c>
       <c r="I278" t="n">
         <v>9.93062770802346e-06</v>
@@ -14898,10 +14898,10 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -14925,16 +14925,16 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>3110907462318.414</v>
+        <v>3110907462318.41</v>
       </c>
       <c r="G279" t="n">
         <v>130</v>
       </c>
       <c r="H279" t="n">
-        <v>0.1711041927337646</v>
+        <v>0.119416952133179</v>
       </c>
       <c r="I279" t="n">
-        <v>9.719535900029396e-06</v>
+        <v>9.7195359000294e-06</v>
       </c>
       <c r="J279" t="n">
         <v>2003</v>
@@ -14950,10 +14950,10 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -14977,16 +14977,16 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>3104700737237.715</v>
+        <v>3104700737237.71</v>
       </c>
       <c r="G280" t="n">
         <v>56</v>
       </c>
       <c r="H280" t="n">
-        <v>0.07311034202575684</v>
+        <v>0.0651471614837647</v>
       </c>
       <c r="I280" t="n">
-        <v>9.892912149900872e-06</v>
+        <v>9.89291214990087e-06</v>
       </c>
       <c r="J280" t="n">
         <v>2003</v>
@@ -15005,7 +15005,7 @@
         <v>35</v>
       </c>
       <c r="N280" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
@@ -15035,10 +15035,10 @@
         <v>49</v>
       </c>
       <c r="H281" t="n">
-        <v>0.06241655349731445</v>
+        <v>0.0539979934692383</v>
       </c>
       <c r="I281" t="n">
-        <v>9.695233175268613e-06</v>
+        <v>9.69523317526861e-06</v>
       </c>
       <c r="J281" t="n">
         <v>2003</v>
@@ -15057,7 +15057,7 @@
         <v>35</v>
       </c>
       <c r="N281" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
@@ -15081,16 +15081,16 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>3104808193478.612</v>
+        <v>3104808193478.61</v>
       </c>
       <c r="G282" t="n">
         <v>57</v>
       </c>
       <c r="H282" t="n">
-        <v>0.06977391242980957</v>
+        <v>0.0590579509735107</v>
       </c>
       <c r="I282" t="n">
-        <v>9.895552313889376e-06</v>
+        <v>9.895552313889379e-06</v>
       </c>
       <c r="J282" t="n">
         <v>2003</v>
@@ -15109,7 +15109,7 @@
         <v>35</v>
       </c>
       <c r="N282" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283">
@@ -15133,13 +15133,13 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>3104484504093.164</v>
+        <v>3104484504093.16</v>
       </c>
       <c r="G283" t="n">
         <v>54</v>
       </c>
       <c r="H283" t="n">
-        <v>0.08650088310241699</v>
+        <v>0.0634453296661377</v>
       </c>
       <c r="I283" t="n">
         <v>4.3989247160545e-06</v>
@@ -15161,7 +15161,7 @@
         <v>35</v>
       </c>
       <c r="N283" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
@@ -15185,16 +15185,16 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>39536719.78976859</v>
+        <v>39536719.7897686</v>
       </c>
       <c r="G284" t="n">
         <v>130</v>
       </c>
       <c r="H284" t="n">
-        <v>0.01423096656799316</v>
+        <v>0.008582353591918951</v>
       </c>
       <c r="I284" t="n">
-        <v>9.577905122535048e-06</v>
+        <v>9.57790512253505e-06</v>
       </c>
       <c r="J284" t="n">
         <v>817</v>
@@ -15210,10 +15210,10 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N284" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -15237,16 +15237,16 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>39491518.38471355</v>
+        <v>39491518.3847136</v>
       </c>
       <c r="G285" t="n">
         <v>87</v>
       </c>
       <c r="H285" t="n">
-        <v>0.00938725471496582</v>
+        <v>0.0054166316986084</v>
       </c>
       <c r="I285" t="n">
-        <v>9.757291252869126e-06</v>
+        <v>9.757291252869129e-06</v>
       </c>
       <c r="J285" t="n">
         <v>817</v>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -15289,13 +15289,13 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>39544288.01475942</v>
+        <v>39544288.0147594</v>
       </c>
       <c r="G286" t="n">
         <v>181</v>
       </c>
       <c r="H286" t="n">
-        <v>0.04196906089782715</v>
+        <v>0.0266427993774414</v>
       </c>
       <c r="I286" t="n">
         <v>9.60450419451481e-06</v>
@@ -15317,7 +15317,7 @@
         <v>35</v>
       </c>
       <c r="N286" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
@@ -15341,16 +15341,16 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>39544114.93996456</v>
+        <v>39544114.9399646</v>
       </c>
       <c r="G287" t="n">
         <v>177</v>
       </c>
       <c r="H287" t="n">
-        <v>0.0429227352142334</v>
+        <v>0.0247797966003418</v>
       </c>
       <c r="I287" t="n">
-        <v>9.805466833165744e-06</v>
+        <v>9.80546683316574e-06</v>
       </c>
       <c r="J287" t="n">
         <v>817</v>
@@ -15369,7 +15369,7 @@
         <v>35</v>
       </c>
       <c r="N287" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
@@ -15393,16 +15393,16 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>39544288.01475942</v>
+        <v>39544288.0147594</v>
       </c>
       <c r="G288" t="n">
         <v>181</v>
       </c>
       <c r="H288" t="n">
-        <v>0.04459261894226074</v>
+        <v>0.0232682228088379</v>
       </c>
       <c r="I288" t="n">
-        <v>9.605282227497627e-06</v>
+        <v>9.60528222749763e-06</v>
       </c>
       <c r="J288" t="n">
         <v>817</v>
@@ -15421,7 +15421,7 @@
         <v>35</v>
       </c>
       <c r="N288" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289">
@@ -15445,16 +15445,16 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>39263141.28832729</v>
+        <v>39263141.2883273</v>
       </c>
       <c r="G289" t="n">
         <v>42</v>
       </c>
       <c r="H289" t="n">
-        <v>0.007867574691772461</v>
+        <v>0.008661508560180661</v>
       </c>
       <c r="I289" t="n">
-        <v>2.854299742748162e-06</v>
+        <v>2.85429974274816e-06</v>
       </c>
       <c r="J289" t="n">
         <v>817</v>
@@ -15473,7 +15473,7 @@
         <v>35</v>
       </c>
       <c r="N289" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
@@ -15497,13 +15497,13 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5.177624323644659</v>
+        <v>5.17762432364466</v>
       </c>
       <c r="G290" t="n">
         <v>81</v>
       </c>
       <c r="H290" t="n">
-        <v>0.003532886505126953</v>
+        <v>0.0020754337310791</v>
       </c>
       <c r="I290" t="n">
         <v>9.73215531173906e-06</v>
@@ -15522,10 +15522,10 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5.158442555151209</v>
+        <v>5.15844255515121</v>
       </c>
       <c r="G291" t="n">
         <v>34</v>
       </c>
       <c r="H291" t="n">
-        <v>0.001448869705200195</v>
+        <v>0.000850915908813477</v>
       </c>
       <c r="I291" t="n">
-        <v>4.081601348667869e-06</v>
+        <v>4.08160134866787e-06</v>
       </c>
       <c r="J291" t="n">
         <v>443</v>
@@ -15574,10 +15574,10 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -15601,16 +15601,16 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5.178270509353768</v>
+        <v>5.17827050935377</v>
       </c>
       <c r="G292" t="n">
         <v>137</v>
       </c>
       <c r="H292" t="n">
-        <v>0.02423858642578125</v>
+        <v>0.0129632949829102</v>
       </c>
       <c r="I292" t="n">
-        <v>9.650147612512397e-06</v>
+        <v>9.6501476125124e-06</v>
       </c>
       <c r="J292" t="n">
         <v>443</v>
@@ -15629,7 +15629,7 @@
         <v>45</v>
       </c>
       <c r="N292" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
@@ -15653,13 +15653,13 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5.178268853303544</v>
+        <v>5.17826885330354</v>
       </c>
       <c r="G293" t="n">
         <v>135</v>
       </c>
       <c r="H293" t="n">
-        <v>0.02065372467041016</v>
+        <v>0.0123195648193359</v>
       </c>
       <c r="I293" t="n">
         <v>9.83440618854865e-06</v>
@@ -15681,7 +15681,7 @@
         <v>45</v>
       </c>
       <c r="N293" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294">
@@ -15705,16 +15705,16 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>5.178270509353768</v>
+        <v>5.17827050935377</v>
       </c>
       <c r="G294" t="n">
         <v>137</v>
       </c>
       <c r="H294" t="n">
-        <v>0.01409578323364258</v>
+        <v>0.0109269618988037</v>
       </c>
       <c r="I294" t="n">
-        <v>9.650470275556943e-06</v>
+        <v>9.650470275556939e-06</v>
       </c>
       <c r="J294" t="n">
         <v>443</v>
@@ -15733,7 +15733,7 @@
         <v>45</v>
       </c>
       <c r="N294" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295">
@@ -15757,16 +15757,16 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5.178253712272408</v>
+        <v>5.17825371227241</v>
       </c>
       <c r="G295" t="n">
         <v>124</v>
       </c>
       <c r="H295" t="n">
-        <v>0.0367286205291748</v>
+        <v>0.0226900577545166</v>
       </c>
       <c r="I295" t="n">
-        <v>9.309633927097807e-06</v>
+        <v>9.30963392709781e-06</v>
       </c>
       <c r="J295" t="n">
         <v>443</v>
@@ -15785,7 +15785,7 @@
         <v>45</v>
       </c>
       <c r="N295" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -15809,16 +15809,16 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8.235967774192392</v>
+        <v>8.235967774192391</v>
       </c>
       <c r="G296" t="n">
         <v>82</v>
       </c>
       <c r="H296" t="n">
-        <v>0.001885890960693359</v>
+        <v>0.00125575065612793</v>
       </c>
       <c r="I296" t="n">
-        <v>9.610906841174262e-06</v>
+        <v>9.61090684117426e-06</v>
       </c>
       <c r="J296" t="n">
         <v>198</v>
@@ -15834,10 +15834,10 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N296" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -15867,7 +15867,7 @@
         <v>20</v>
       </c>
       <c r="H297" t="n">
-        <v>0.0003921985626220703</v>
+        <v>0.000320196151733398</v>
       </c>
       <c r="I297" t="n">
         <v>6.14552676886002e-06</v>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -15913,16 +15913,16 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>8.238243301701676</v>
+        <v>8.238243301701679</v>
       </c>
       <c r="G298" t="n">
         <v>136</v>
       </c>
       <c r="H298" t="n">
-        <v>0.01436328887939453</v>
+        <v>0.0114426612854004</v>
       </c>
       <c r="I298" t="n">
-        <v>9.876832524764396e-06</v>
+        <v>9.8768325247644e-06</v>
       </c>
       <c r="J298" t="n">
         <v>198</v>
@@ -15941,7 +15941,7 @@
         <v>45</v>
       </c>
       <c r="N298" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
@@ -15965,16 +15965,16 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>8.237889592047134</v>
+        <v>8.23788959204713</v>
       </c>
       <c r="G299" t="n">
         <v>124</v>
       </c>
       <c r="H299" t="n">
-        <v>0.01080584526062012</v>
+        <v>0.0122201442718506</v>
       </c>
       <c r="I299" t="n">
-        <v>9.794029918628049e-06</v>
+        <v>9.79402991862805e-06</v>
       </c>
       <c r="J299" t="n">
         <v>198</v>
@@ -15993,7 +15993,7 @@
         <v>45</v>
       </c>
       <c r="N299" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
@@ -16017,16 +16017,16 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>8.238243301701676</v>
+        <v>8.238243301701679</v>
       </c>
       <c r="G300" t="n">
         <v>136</v>
       </c>
       <c r="H300" t="n">
-        <v>0.010467529296875</v>
+        <v>0.00931215286254883</v>
       </c>
       <c r="I300" t="n">
-        <v>9.880871251389207e-06</v>
+        <v>9.880871251389211e-06</v>
       </c>
       <c r="J300" t="n">
         <v>198</v>
@@ -16045,7 +16045,7 @@
         <v>45</v>
       </c>
       <c r="N300" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
@@ -16069,13 +16069,13 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>8.237595944560951</v>
+        <v>8.237595944560949</v>
       </c>
       <c r="G301" t="n">
         <v>115</v>
       </c>
       <c r="H301" t="n">
-        <v>0.01969194412231445</v>
+        <v>0.0186624526977539</v>
       </c>
       <c r="I301" t="n">
         <v>9.70683683777986e-06</v>
@@ -16097,7 +16097,7 @@
         <v>45</v>
       </c>
       <c r="N301" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302">
@@ -16121,16 +16121,16 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>5.664183085589989</v>
+        <v>5.66418308558999</v>
       </c>
       <c r="G302" t="n">
         <v>99</v>
       </c>
       <c r="H302" t="n">
-        <v>0.06253838539123535</v>
+        <v>0.0677995681762695</v>
       </c>
       <c r="I302" t="n">
-        <v>9.887257321542167e-06</v>
+        <v>9.88725732154217e-06</v>
       </c>
       <c r="J302" t="n">
         <v>1612</v>
@@ -16146,10 +16146,10 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -16173,16 +16173,16 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>5.644495706012883</v>
+        <v>5.64449570601288</v>
       </c>
       <c r="G303" t="n">
         <v>42</v>
       </c>
       <c r="H303" t="n">
-        <v>0.02746891975402832</v>
+        <v>0.0240786075592041</v>
       </c>
       <c r="I303" t="n">
-        <v>1.125279261864306e-07</v>
+        <v>1.12527926186431e-07</v>
       </c>
       <c r="J303" t="n">
         <v>1612</v>
@@ -16198,10 +16198,10 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -16231,10 +16231,10 @@
         <v>161</v>
       </c>
       <c r="H304" t="n">
-        <v>0.1550300121307373</v>
+        <v>0.108993053436279</v>
       </c>
       <c r="I304" t="n">
-        <v>9.707657448533545e-06</v>
+        <v>9.70765744853355e-06</v>
       </c>
       <c r="J304" t="n">
         <v>1612</v>
@@ -16253,7 +16253,7 @@
         <v>45</v>
       </c>
       <c r="N304" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
@@ -16277,16 +16277,16 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>5.665131132412513</v>
+        <v>5.66513113241251</v>
       </c>
       <c r="G305" t="n">
         <v>158</v>
       </c>
       <c r="H305" t="n">
-        <v>0.1449551582336426</v>
+        <v>0.0981409549713135</v>
       </c>
       <c r="I305" t="n">
-        <v>9.935322342251206e-06</v>
+        <v>9.935322342251211e-06</v>
       </c>
       <c r="J305" t="n">
         <v>1612</v>
@@ -16305,7 +16305,7 @@
         <v>45</v>
       </c>
       <c r="N305" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -16335,10 +16335,10 @@
         <v>161</v>
       </c>
       <c r="H306" t="n">
-        <v>0.1397101879119873</v>
+        <v>0.0978415012359619</v>
       </c>
       <c r="I306" t="n">
-        <v>9.708091313958506e-06</v>
+        <v>9.70809131395851e-06</v>
       </c>
       <c r="J306" t="n">
         <v>1612</v>
@@ -16357,7 +16357,7 @@
         <v>45</v>
       </c>
       <c r="N306" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
@@ -16381,16 +16381,16 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5.665055218084534</v>
+        <v>5.66505521808453</v>
       </c>
       <c r="G307" t="n">
         <v>138</v>
       </c>
       <c r="H307" t="n">
-        <v>0.1371164321899414</v>
+        <v>0.102617740631104</v>
       </c>
       <c r="I307" t="n">
-        <v>9.512233856389372e-06</v>
+        <v>9.51223385638937e-06</v>
       </c>
       <c r="J307" t="n">
         <v>1612</v>
@@ -16409,7 +16409,7 @@
         <v>45</v>
       </c>
       <c r="N307" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -16433,16 +16433,16 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>13.85636022094015</v>
+        <v>13.8563602209402</v>
       </c>
       <c r="G308" t="n">
         <v>74</v>
       </c>
       <c r="H308" t="n">
-        <v>0.004846811294555664</v>
+        <v>0.00270819664001465</v>
       </c>
       <c r="I308" t="n">
-        <v>9.868273052810091e-06</v>
+        <v>9.86827305281009e-06</v>
       </c>
       <c r="J308" t="n">
         <v>634</v>
@@ -16458,10 +16458,10 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N308" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>13.85335522354526</v>
+        <v>13.8533552235453</v>
       </c>
       <c r="G309" t="n">
         <v>56</v>
       </c>
       <c r="H309" t="n">
-        <v>0.003355979919433594</v>
+        <v>0.00195455551147461</v>
       </c>
       <c r="I309" t="n">
-        <v>9.058097463115668e-06</v>
+        <v>9.058097463115669e-06</v>
       </c>
       <c r="J309" t="n">
         <v>634</v>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N309" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -16543,10 +16543,10 @@
         <v>155</v>
       </c>
       <c r="H310" t="n">
-        <v>0.02841854095458984</v>
+        <v>0.0180025100708008</v>
       </c>
       <c r="I310" t="n">
-        <v>9.910563380947918e-06</v>
+        <v>9.91056338094792e-06</v>
       </c>
       <c r="J310" t="n">
         <v>634</v>
@@ -16565,7 +16565,7 @@
         <v>45</v>
       </c>
       <c r="N310" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311">
@@ -16589,16 +16589,16 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>13.86076869697312</v>
+        <v>13.8607686969731</v>
       </c>
       <c r="G311" t="n">
         <v>134</v>
       </c>
       <c r="H311" t="n">
-        <v>0.02189064025878906</v>
+        <v>0.0140736103057861</v>
       </c>
       <c r="I311" t="n">
-        <v>9.983511867083708e-06</v>
+        <v>9.98351186708371e-06</v>
       </c>
       <c r="J311" t="n">
         <v>634</v>
@@ -16617,7 +16617,7 @@
         <v>45</v>
       </c>
       <c r="N311" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312">
@@ -16647,10 +16647,10 @@
         <v>155</v>
       </c>
       <c r="H312" t="n">
-        <v>0.0299227237701416</v>
+        <v>0.015369176864624</v>
       </c>
       <c r="I312" t="n">
-        <v>9.912042096248041e-06</v>
+        <v>9.91204209624804e-06</v>
       </c>
       <c r="J312" t="n">
         <v>634</v>
@@ -16669,7 +16669,7 @@
         <v>45</v>
       </c>
       <c r="N312" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313">
@@ -16693,16 +16693,16 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>13.85734968842418</v>
+        <v>13.8573496884242</v>
       </c>
       <c r="G313" t="n">
         <v>82</v>
       </c>
       <c r="H313" t="n">
-        <v>0.0199134349822998</v>
+        <v>0.0152521133422852</v>
       </c>
       <c r="I313" t="n">
-        <v>9.471594579340525e-06</v>
+        <v>9.47159457934053e-06</v>
       </c>
       <c r="J313" t="n">
         <v>634</v>
@@ -16721,7 +16721,7 @@
         <v>45</v>
       </c>
       <c r="N313" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314">
@@ -16745,16 +16745,16 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>5.618009280534263</v>
+        <v>5.61800928053426</v>
       </c>
       <c r="G314" t="n">
         <v>124</v>
       </c>
       <c r="H314" t="n">
-        <v>0.09862685203552246</v>
+        <v>0.0527632236480713</v>
       </c>
       <c r="I314" t="n">
-        <v>9.976989305980093e-06</v>
+        <v>9.976989305980091e-06</v>
       </c>
       <c r="J314" t="n">
         <v>1454</v>
@@ -16770,10 +16770,10 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N314" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -16803,10 +16803,10 @@
         <v>49</v>
       </c>
       <c r="H315" t="n">
-        <v>0.03775930404663086</v>
+        <v>0.0198225975036621</v>
       </c>
       <c r="I315" t="n">
-        <v>3.579918195761039e-06</v>
+        <v>3.57991819576104e-06</v>
       </c>
       <c r="J315" t="n">
         <v>1454</v>
@@ -16822,10 +16822,10 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N315" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -16849,16 +16849,16 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>5.619388501645698</v>
+        <v>5.6193885016457</v>
       </c>
       <c r="G316" t="n">
         <v>195</v>
       </c>
       <c r="H316" t="n">
-        <v>0.1998136043548584</v>
+        <v>0.105072975158691</v>
       </c>
       <c r="I316" t="n">
-        <v>9.851479407165744e-06</v>
+        <v>9.851479407165741e-06</v>
       </c>
       <c r="J316" t="n">
         <v>1454</v>
@@ -16877,7 +16877,7 @@
         <v>45</v>
       </c>
       <c r="N316" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317">
@@ -16901,16 +16901,16 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>5.619367025276005</v>
+        <v>5.61936702527601</v>
       </c>
       <c r="G317" t="n">
         <v>190</v>
       </c>
       <c r="H317" t="n">
-        <v>0.1950728893280029</v>
+        <v>0.103615999221802</v>
       </c>
       <c r="I317" t="n">
-        <v>9.979131929005756e-06</v>
+        <v>9.979131929005761e-06</v>
       </c>
       <c r="J317" t="n">
         <v>1454</v>
@@ -16929,7 +16929,7 @@
         <v>45</v>
       </c>
       <c r="N317" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -16953,16 +16953,16 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>5.619388501645698</v>
+        <v>5.6193885016457</v>
       </c>
       <c r="G318" t="n">
         <v>195</v>
       </c>
       <c r="H318" t="n">
-        <v>0.1923387050628662</v>
+        <v>0.130772352218628</v>
       </c>
       <c r="I318" t="n">
-        <v>9.852211679750895e-06</v>
+        <v>9.85221167975089e-06</v>
       </c>
       <c r="J318" t="n">
         <v>1454</v>
@@ -16981,7 +16981,7 @@
         <v>45</v>
       </c>
       <c r="N318" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319">
@@ -17005,16 +17005,16 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>5.618886263915756</v>
+        <v>5.61888626391576</v>
       </c>
       <c r="G319" t="n">
         <v>148</v>
       </c>
       <c r="H319" t="n">
-        <v>0.1674001216888428</v>
+        <v>0.105250120162964</v>
       </c>
       <c r="I319" t="n">
-        <v>9.766500775776613e-06</v>
+        <v>9.766500775776609e-06</v>
       </c>
       <c r="J319" t="n">
         <v>1454</v>
@@ -17033,7 +17033,7 @@
         <v>45</v>
       </c>
       <c r="N319" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320">
@@ -17063,10 +17063,10 @@
         <v>134</v>
       </c>
       <c r="H320" t="n">
-        <v>0.003344535827636719</v>
+        <v>0.00143337249755859</v>
       </c>
       <c r="I320" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.8212278755997e-06</v>
       </c>
       <c r="J320" t="n">
         <v>48</v>
@@ -17082,10 +17082,10 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N320" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -17109,16 +17109,16 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>3011156754.072117</v>
+        <v>3011156754.07212</v>
       </c>
       <c r="G321" t="n">
         <v>85</v>
       </c>
       <c r="H321" t="n">
-        <v>0.001943588256835938</v>
+        <v>0.000900983810424805</v>
       </c>
       <c r="I321" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.6768023857551e-06</v>
       </c>
       <c r="J321" t="n">
         <v>48</v>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N321" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -17161,16 +17161,16 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>3015074205.725309</v>
+        <v>3015074205.72531</v>
       </c>
       <c r="G322" t="n">
         <v>210</v>
       </c>
       <c r="H322" t="n">
-        <v>0.02341580390930176</v>
+        <v>0.0174860954284668</v>
       </c>
       <c r="I322" t="n">
-        <v>9.877352213312383e-06</v>
+        <v>9.87735221331238e-06</v>
       </c>
       <c r="J322" t="n">
         <v>48</v>
@@ -17189,7 +17189,7 @@
         <v>45</v>
       </c>
       <c r="N322" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -17213,16 +17213,16 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>3009919270.039279</v>
+        <v>3009919270.03928</v>
       </c>
       <c r="G323" t="n">
         <v>75</v>
       </c>
       <c r="H323" t="n">
-        <v>0.004793882369995117</v>
+        <v>0.00598740577697754</v>
       </c>
       <c r="I323" t="n">
-        <v>7.186022346434485e-06</v>
+        <v>7.18602234643449e-06</v>
       </c>
       <c r="J323" t="n">
         <v>48</v>
@@ -17241,7 +17241,7 @@
         <v>45</v>
       </c>
       <c r="N323" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324">
@@ -17265,16 +17265,16 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>3015074205.725309</v>
+        <v>3015074205.72531</v>
       </c>
       <c r="G324" t="n">
         <v>210</v>
       </c>
       <c r="H324" t="n">
-        <v>0.01872754096984863</v>
+        <v>0.0187053680419922</v>
       </c>
       <c r="I324" t="n">
-        <v>9.878384080939146e-06</v>
+        <v>9.878384080939149e-06</v>
       </c>
       <c r="J324" t="n">
         <v>48</v>
@@ -17293,7 +17293,7 @@
         <v>45</v>
       </c>
       <c r="N324" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325">
@@ -17317,16 +17317,16 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>3006864922.392365</v>
+        <v>3006864922.39236</v>
       </c>
       <c r="G325" t="n">
         <v>57</v>
       </c>
       <c r="H325" t="n">
-        <v>0.003686666488647461</v>
+        <v>0.00931978225708008</v>
       </c>
       <c r="I325" t="n">
-        <v>4.341497044132422e-06</v>
+        <v>4.34149704413242e-06</v>
       </c>
       <c r="J325" t="n">
         <v>48</v>
@@ -17345,7 +17345,7 @@
         <v>45</v>
       </c>
       <c r="N325" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326">
@@ -17369,16 +17369,16 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>2.366980478285793</v>
+        <v>2.36698047828579</v>
       </c>
       <c r="G326" t="n">
         <v>113</v>
       </c>
       <c r="H326" t="n">
-        <v>0.00373077392578125</v>
+        <v>0.0017390251159668</v>
       </c>
       <c r="I326" t="n">
-        <v>9.718522766616134e-06</v>
+        <v>9.718522766616129e-06</v>
       </c>
       <c r="J326" t="n">
         <v>130</v>
@@ -17394,10 +17394,10 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N326" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>2.341827745527051</v>
+        <v>2.34182774552705</v>
       </c>
       <c r="G327" t="n">
         <v>39</v>
       </c>
       <c r="H327" t="n">
-        <v>0.001772165298461914</v>
+        <v>0.000604391098022461</v>
       </c>
       <c r="I327" t="n">
-        <v>6.624151165445741e-06</v>
+        <v>6.62415116544574e-06</v>
       </c>
       <c r="J327" t="n">
         <v>130</v>
@@ -17446,10 +17446,10 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N327" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -17473,16 +17473,16 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2.367353432987722</v>
+        <v>2.36735343298772</v>
       </c>
       <c r="G328" t="n">
         <v>174</v>
       </c>
       <c r="H328" t="n">
-        <v>0.02196431159973145</v>
+        <v>0.0222458839416504</v>
       </c>
       <c r="I328" t="n">
-        <v>9.447348360400831e-06</v>
+        <v>9.44734836040083e-06</v>
       </c>
       <c r="J328" t="n">
         <v>130</v>
@@ -17501,7 +17501,7 @@
         <v>45</v>
       </c>
       <c r="N328" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329">
@@ -17525,16 +17525,16 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2.367351293151547</v>
+        <v>2.36735129315155</v>
       </c>
       <c r="G329" t="n">
         <v>171</v>
       </c>
       <c r="H329" t="n">
-        <v>0.01903033256530762</v>
+        <v>0.025907039642334</v>
       </c>
       <c r="I329" t="n">
-        <v>9.928869028728721e-06</v>
+        <v>9.928869028728719e-06</v>
       </c>
       <c r="J329" t="n">
         <v>130</v>
@@ -17553,7 +17553,7 @@
         <v>45</v>
       </c>
       <c r="N329" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330">
@@ -17577,16 +17577,16 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2.367353432987722</v>
+        <v>2.36735343298772</v>
       </c>
       <c r="G330" t="n">
         <v>174</v>
       </c>
       <c r="H330" t="n">
-        <v>0.01782751083374023</v>
+        <v>0.0235285758972168</v>
       </c>
       <c r="I330" t="n">
-        <v>9.447742491849717e-06</v>
+        <v>9.447742491849719e-06</v>
       </c>
       <c r="J330" t="n">
         <v>130</v>
@@ -17605,7 +17605,7 @@
         <v>45</v>
       </c>
       <c r="N330" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
@@ -17629,16 +17629,16 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>2.367324523879681</v>
+        <v>2.36732452387968</v>
       </c>
       <c r="G331" t="n">
         <v>152</v>
       </c>
       <c r="H331" t="n">
-        <v>0.03575491905212402</v>
+        <v>0.0410101413726807</v>
       </c>
       <c r="I331" t="n">
-        <v>9.930005564896901e-06</v>
+        <v>9.9300055648969e-06</v>
       </c>
       <c r="J331" t="n">
         <v>130</v>
@@ -17657,7 +17657,7 @@
         <v>45</v>
       </c>
       <c r="N331" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332">
@@ -17681,16 +17681,16 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>127119840.5799289</v>
+        <v>127119840.579929</v>
       </c>
       <c r="G332" t="n">
         <v>335</v>
       </c>
       <c r="H332" t="n">
-        <v>2.031142950057983</v>
+        <v>1.36287307739258</v>
       </c>
       <c r="I332" t="n">
-        <v>9.950853270590775e-06</v>
+        <v>9.95085327059078e-06</v>
       </c>
       <c r="J332" t="n">
         <v>3600</v>
@@ -17706,10 +17706,10 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N332" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -17733,16 +17733,16 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>126665889.0410609</v>
+        <v>126665889.041061</v>
       </c>
       <c r="G333" t="n">
         <v>185</v>
       </c>
       <c r="H333" t="n">
-        <v>1.092957258224487</v>
+        <v>0.827143430709839</v>
       </c>
       <c r="I333" t="n">
-        <v>9.959440811812839e-06</v>
+        <v>9.959440811812841e-06</v>
       </c>
       <c r="J333" t="n">
         <v>3600</v>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N333" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -17785,16 +17785,16 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>127181341.6865358</v>
+        <v>127181341.686536</v>
       </c>
       <c r="G334" t="n">
         <v>399</v>
       </c>
       <c r="H334" t="n">
-        <v>1.764015436172485</v>
+        <v>1.86302518844605</v>
       </c>
       <c r="I334" t="n">
-        <v>9.928567452025005e-06</v>
+        <v>9.928567452025011e-06</v>
       </c>
       <c r="J334" t="n">
         <v>3600</v>
@@ -17813,7 +17813,7 @@
         <v>45</v>
       </c>
       <c r="N334" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
@@ -17837,16 +17837,16 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>127152895.1218229</v>
+        <v>127152895.121823</v>
       </c>
       <c r="G335" t="n">
         <v>365</v>
       </c>
       <c r="H335" t="n">
-        <v>1.518686532974243</v>
+        <v>1.70332050323486</v>
       </c>
       <c r="I335" t="n">
-        <v>9.926558789591216e-06</v>
+        <v>9.926558789591221e-06</v>
       </c>
       <c r="J335" t="n">
         <v>3600</v>
@@ -17865,7 +17865,7 @@
         <v>45</v>
       </c>
       <c r="N335" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
@@ -17889,16 +17889,16 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>127181341.6865358</v>
+        <v>127181341.686536</v>
       </c>
       <c r="G336" t="n">
         <v>399</v>
       </c>
       <c r="H336" t="n">
-        <v>1.521974563598633</v>
+        <v>1.62707948684692</v>
       </c>
       <c r="I336" t="n">
-        <v>9.937806151651481e-06</v>
+        <v>9.937806151651479e-06</v>
       </c>
       <c r="J336" t="n">
         <v>3600</v>
@@ -17917,7 +17917,7 @@
         <v>45</v>
       </c>
       <c r="N336" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337">
@@ -17947,10 +17947,10 @@
         <v>191</v>
       </c>
       <c r="H337" t="n">
-        <v>0.7351632118225098</v>
+        <v>0.8003220558166499</v>
       </c>
       <c r="I337" t="n">
-        <v>9.972797948983153e-06</v>
+        <v>9.97279794898315e-06</v>
       </c>
       <c r="J337" t="n">
         <v>3600</v>
@@ -17969,7 +17969,7 @@
         <v>45</v>
       </c>
       <c r="N337" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338">
@@ -17993,16 +17993,16 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>67579067.21497774</v>
+        <v>67579067.2149777</v>
       </c>
       <c r="G338" t="n">
         <v>220</v>
       </c>
       <c r="H338" t="n">
-        <v>0.03185081481933594</v>
+        <v>0.0299906730651856</v>
       </c>
       <c r="I338" t="n">
-        <v>9.756365027126536e-06</v>
+        <v>9.75636502712654e-06</v>
       </c>
       <c r="J338" t="n">
         <v>1083</v>
@@ -18018,10 +18018,10 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N338" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -18045,16 +18045,16 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>66842601.59795048</v>
+        <v>66842601.5979505</v>
       </c>
       <c r="G339" t="n">
         <v>90</v>
       </c>
       <c r="H339" t="n">
-        <v>0.01239776611328125</v>
+        <v>0.0146942138671875</v>
       </c>
       <c r="I339" t="n">
-        <v>8.224602928185185e-06</v>
+        <v>8.22460292818519e-06</v>
       </c>
       <c r="J339" t="n">
         <v>1083</v>
@@ -18070,10 +18070,10 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N339" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -18097,16 +18097,16 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>67599182.68957596</v>
+        <v>67599182.689576</v>
       </c>
       <c r="G340" t="n">
         <v>295</v>
       </c>
       <c r="H340" t="n">
-        <v>0.07013964653015137</v>
+        <v>0.0883526802062988</v>
       </c>
       <c r="I340" t="n">
-        <v>9.734852625470517e-06</v>
+        <v>9.73485262547052e-06</v>
       </c>
       <c r="J340" t="n">
         <v>1083</v>
@@ -18125,7 +18125,7 @@
         <v>45</v>
       </c>
       <c r="N340" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341">
@@ -18149,16 +18149,16 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>67598749.41335814</v>
+        <v>67598749.41335811</v>
       </c>
       <c r="G341" t="n">
         <v>290</v>
       </c>
       <c r="H341" t="n">
-        <v>0.06887388229370117</v>
+        <v>0.13558840751648</v>
       </c>
       <c r="I341" t="n">
-        <v>9.729936023137322e-06</v>
+        <v>9.72993602313732e-06</v>
       </c>
       <c r="J341" t="n">
         <v>1083</v>
@@ -18177,7 +18177,7 @@
         <v>45</v>
       </c>
       <c r="N341" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342">
@@ -18201,16 +18201,16 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>67599182.68957596</v>
+        <v>67599182.689576</v>
       </c>
       <c r="G342" t="n">
         <v>295</v>
       </c>
       <c r="H342" t="n">
-        <v>0.06643939018249512</v>
+        <v>0.138070821762085</v>
       </c>
       <c r="I342" t="n">
-        <v>9.736014118547305e-06</v>
+        <v>9.7360141185473e-06</v>
       </c>
       <c r="J342" t="n">
         <v>1083</v>
@@ -18229,7 +18229,7 @@
         <v>45</v>
       </c>
       <c r="N342" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343">
@@ -18253,13 +18253,13 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>67583706.82592624</v>
+        <v>67583706.8259262</v>
       </c>
       <c r="G343" t="n">
         <v>228</v>
       </c>
       <c r="H343" t="n">
-        <v>0.07510852813720703</v>
+        <v>0.124946355819702</v>
       </c>
       <c r="I343" t="n">
         <v>9.95487414183209e-06</v>
@@ -18281,7 +18281,7 @@
         <v>45</v>
       </c>
       <c r="N343" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
@@ -18305,13 +18305,13 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>5.783741344069723</v>
+        <v>5.78374134406972</v>
       </c>
       <c r="G344" t="n">
         <v>152</v>
       </c>
       <c r="H344" t="n">
-        <v>0.1185636520385742</v>
+        <v>0.133656740188599</v>
       </c>
       <c r="I344" t="n">
         <v>9.889266292128169e-06</v>
@@ -18330,10 +18330,10 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N344" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>5.765054880341849</v>
+        <v>5.76505488034185</v>
       </c>
       <c r="G345" t="n">
         <v>57</v>
       </c>
       <c r="H345" t="n">
-        <v>0.04553341865539551</v>
+        <v>0.0483791828155518</v>
       </c>
       <c r="I345" t="n">
-        <v>9.119336362863703e-06</v>
+        <v>9.1193363628637e-06</v>
       </c>
       <c r="J345" t="n">
         <v>1624</v>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N345" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -18409,16 +18409,16 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>5.785639501290933</v>
+        <v>5.78563950129093</v>
       </c>
       <c r="G346" t="n">
         <v>231</v>
       </c>
       <c r="H346" t="n">
-        <v>0.1433796882629395</v>
+        <v>0.159070491790771</v>
       </c>
       <c r="I346" t="n">
-        <v>9.825650778226084e-06</v>
+        <v>9.82565077822608e-06</v>
       </c>
       <c r="J346" t="n">
         <v>1624</v>
@@ -18437,7 +18437,7 @@
         <v>45</v>
       </c>
       <c r="N346" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347">
@@ -18461,16 +18461,16 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5.770937290801473</v>
+        <v>5.77093729080147</v>
       </c>
       <c r="G347" t="n">
         <v>73</v>
       </c>
       <c r="H347" t="n">
-        <v>0.03932476043701172</v>
+        <v>0.07700514793396</v>
       </c>
       <c r="I347" t="n">
-        <v>6.956465387591656e-06</v>
+        <v>6.95646538759166e-06</v>
       </c>
       <c r="J347" t="n">
         <v>1624</v>
@@ -18489,7 +18489,7 @@
         <v>45</v>
       </c>
       <c r="N347" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348">
@@ -18513,16 +18513,16 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5.785639501290933</v>
+        <v>5.78563950129093</v>
       </c>
       <c r="G348" t="n">
         <v>231</v>
       </c>
       <c r="H348" t="n">
-        <v>0.1376886367797852</v>
+        <v>0.279668569564819</v>
       </c>
       <c r="I348" t="n">
-        <v>9.826861310513606e-06</v>
+        <v>9.826861310513611e-06</v>
       </c>
       <c r="J348" t="n">
         <v>1624</v>
@@ -18541,7 +18541,7 @@
         <v>45</v>
       </c>
       <c r="N348" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
@@ -18565,16 +18565,16 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5.774184196767299</v>
+        <v>5.7741841967673</v>
       </c>
       <c r="G349" t="n">
         <v>84</v>
       </c>
       <c r="H349" t="n">
-        <v>0.05098223686218262</v>
+        <v>0.0943257808685303</v>
       </c>
       <c r="I349" t="n">
-        <v>9.366300655364216e-06</v>
+        <v>9.36630065536422e-06</v>
       </c>
       <c r="J349" t="n">
         <v>1624</v>
@@ -18593,7 +18593,7 @@
         <v>45</v>
       </c>
       <c r="N349" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350">
@@ -18617,13 +18617,13 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>3112885321254.005</v>
+        <v>3112885321254</v>
       </c>
       <c r="G350" t="n">
         <v>176</v>
       </c>
       <c r="H350" t="n">
-        <v>0.1501166820526123</v>
+        <v>0.168738126754761</v>
       </c>
       <c r="I350" t="n">
         <v>9.93062770802346e-06</v>
@@ -18642,10 +18642,10 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N350" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -18669,16 +18669,16 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>3110907462318.414</v>
+        <v>3110907462318.41</v>
       </c>
       <c r="G351" t="n">
         <v>130</v>
       </c>
       <c r="H351" t="n">
-        <v>0.1184928417205811</v>
+        <v>0.140972852706909</v>
       </c>
       <c r="I351" t="n">
-        <v>9.719535900029396e-06</v>
+        <v>9.7195359000294e-06</v>
       </c>
       <c r="J351" t="n">
         <v>2003</v>
@@ -18694,10 +18694,10 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N351" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -18721,13 +18721,13 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>3114353678606.208</v>
+        <v>3114353678606.21</v>
       </c>
       <c r="G352" t="n">
         <v>263</v>
       </c>
       <c r="H352" t="n">
-        <v>0.2931406497955322</v>
+        <v>0.371036052703857</v>
       </c>
       <c r="I352" t="n">
         <v>9.971103333870571e-06</v>
@@ -18749,7 +18749,7 @@
         <v>45</v>
       </c>
       <c r="N352" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353">
@@ -18773,13 +18773,13 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>3104915192089.448</v>
+        <v>3104915192089.45</v>
       </c>
       <c r="G353" t="n">
         <v>58</v>
       </c>
       <c r="H353" t="n">
-        <v>0.04907059669494629</v>
+        <v>0.074131965637207</v>
       </c>
       <c r="I353" t="n">
         <v>9.45497113837467e-07</v>
@@ -18801,7 +18801,7 @@
         <v>45</v>
       </c>
       <c r="N353" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354">
@@ -18825,13 +18825,13 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>3114353678606.208</v>
+        <v>3114353678606.21</v>
       </c>
       <c r="G354" t="n">
         <v>263</v>
       </c>
       <c r="H354" t="n">
-        <v>0.275174617767334</v>
+        <v>0.325438261032104</v>
       </c>
       <c r="I354" t="n">
         <v>9.97386224565451e-06</v>
@@ -18853,7 +18853,7 @@
         <v>45</v>
       </c>
       <c r="N354" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355">
@@ -18883,10 +18883,10 @@
         <v>63</v>
       </c>
       <c r="H355" t="n">
-        <v>0.09104657173156738</v>
+        <v>0.0726628303527832</v>
       </c>
       <c r="I355" t="n">
-        <v>5.901881532221405e-06</v>
+        <v>5.90188153222141e-06</v>
       </c>
       <c r="J355" t="n">
         <v>2003</v>
@@ -18905,7 +18905,7 @@
         <v>45</v>
       </c>
       <c r="N355" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356">
@@ -18929,16 +18929,16 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>39536719.78976859</v>
+        <v>39536719.7897686</v>
       </c>
       <c r="G356" t="n">
         <v>130</v>
       </c>
       <c r="H356" t="n">
-        <v>0.009662628173828125</v>
+        <v>0.0130093097686768</v>
       </c>
       <c r="I356" t="n">
-        <v>9.577905122535048e-06</v>
+        <v>9.57790512253505e-06</v>
       </c>
       <c r="J356" t="n">
         <v>817</v>
@@ -18954,10 +18954,10 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N356" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -18981,16 +18981,16 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>39491518.38471355</v>
+        <v>39491518.3847136</v>
       </c>
       <c r="G357" t="n">
         <v>87</v>
       </c>
       <c r="H357" t="n">
-        <v>0.006173133850097656</v>
+        <v>0.0104553699493408</v>
       </c>
       <c r="I357" t="n">
-        <v>9.757291252869126e-06</v>
+        <v>9.757291252869129e-06</v>
       </c>
       <c r="J357" t="n">
         <v>817</v>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N357" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -19033,16 +19033,16 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>39544722.08394278</v>
+        <v>39544722.0839428</v>
       </c>
       <c r="G358" t="n">
         <v>196</v>
       </c>
       <c r="H358" t="n">
-        <v>0.02666401863098145</v>
+        <v>0.0396327972412109</v>
       </c>
       <c r="I358" t="n">
-        <v>9.934041904737642e-06</v>
+        <v>9.93404190473764e-06</v>
       </c>
       <c r="J358" t="n">
         <v>817</v>
@@ -19061,7 +19061,7 @@
         <v>45</v>
       </c>
       <c r="N358" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359">
@@ -19085,16 +19085,16 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>39544656.62233303</v>
+        <v>39544656.622333</v>
       </c>
       <c r="G359" t="n">
         <v>193</v>
       </c>
       <c r="H359" t="n">
-        <v>0.02533864974975586</v>
+        <v>0.0292949676513672</v>
       </c>
       <c r="I359" t="n">
-        <v>9.822046406663035e-06</v>
+        <v>9.82204640666303e-06</v>
       </c>
       <c r="J359" t="n">
         <v>817</v>
@@ -19113,7 +19113,7 @@
         <v>45</v>
       </c>
       <c r="N359" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360">
@@ -19137,16 +19137,16 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>39544722.08394278</v>
+        <v>39544722.0839428</v>
       </c>
       <c r="G360" t="n">
         <v>196</v>
       </c>
       <c r="H360" t="n">
-        <v>0.02267169952392578</v>
+        <v>0.0277502536773682</v>
       </c>
       <c r="I360" t="n">
-        <v>9.934641880824216e-06</v>
+        <v>9.934641880824221e-06</v>
       </c>
       <c r="J360" t="n">
         <v>817</v>
@@ -19165,7 +19165,7 @@
         <v>45</v>
       </c>
       <c r="N360" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361">
@@ -19189,16 +19189,16 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>39457751.66349354</v>
+        <v>39457751.6634935</v>
       </c>
       <c r="G361" t="n">
         <v>75</v>
       </c>
       <c r="H361" t="n">
-        <v>0.01021766662597656</v>
+        <v>0.0181348323822022</v>
       </c>
       <c r="I361" t="n">
-        <v>8.779952335544697e-06</v>
+        <v>8.7799523355447e-06</v>
       </c>
       <c r="J361" t="n">
         <v>817</v>
@@ -19217,7 +19217,7 @@
         <v>45</v>
       </c>
       <c r="N361" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
